--- a/Week3/docs/ProductBacklog.xlsx
+++ b/Week3/docs/ProductBacklog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FPT\SE kì 5\SWP391\SWP391-OnlineShop\Week3\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -112,14 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,152 +228,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,7 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,182 +308,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -707,273 +388,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1045,70 +468,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1130,7 +522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1432,3227 +824,3228 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="55.7083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.2833333333333" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="55.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" ht="19.2" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.2">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" ht="31.2" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.2">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="19.8" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.8">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="85" customHeight="1" spans="1:8">
-      <c r="A10" s="13">
+    <row r="10" spans="1:8" ht="85.05" customHeight="1">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" ht="48.75" customHeight="1" spans="1:8">
-      <c r="A11" s="13">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="48.75" customHeight="1">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="48.75" customHeight="1" spans="1:8">
-      <c r="A12" s="13">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="48.75" customHeight="1">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:8">
-      <c r="A13" s="13">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="40" customHeight="1" spans="1:8">
-      <c r="A14" s="13">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" ht="40" customHeight="1" spans="1:8">
-      <c r="A15" s="13">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" ht="20.55" spans="1:8">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" ht="16.35" spans="1:8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="28"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.8">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="24"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="24"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="24"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="32"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="32"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="32"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="32"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="33"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="33"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="33"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="33"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="33"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="33"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="33"/>
-      <c r="G32" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="18"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" s="18"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="18"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="26"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="26"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="26"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="26"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="27"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="27"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="27"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="27"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="27"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="27"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="27"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="31"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="31"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="31"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="31"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="31"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="31"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="31"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="31"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="31"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="31"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="31"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="31"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="31"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="31"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="31"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="31"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="31"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="31"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="31"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="31"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="31"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="31"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="31"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="31"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="31"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="31"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="31"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="31"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="31"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="31"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="31"/>
+      <c r="G63" s="25"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="31"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="31"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="31"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="31"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="31"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="31"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="31"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="31"/>
+      <c r="G71" s="25"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="31"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="31"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="31"/>
+      <c r="G74" s="25"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="31"/>
+      <c r="G75" s="25"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="31"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="31"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="31"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="31"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="31"/>
+      <c r="G80" s="25"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="31"/>
+      <c r="G81" s="25"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="31"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="31"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="31"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="31"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="31"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="31"/>
+      <c r="G87" s="25"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="31"/>
+      <c r="G88" s="25"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="31"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="31"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="31"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="31"/>
+      <c r="G92" s="25"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="31"/>
+      <c r="G93" s="25"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="31"/>
+      <c r="G94" s="25"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="31"/>
+      <c r="G95" s="25"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="31"/>
+      <c r="G96" s="25"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="31"/>
+      <c r="G97" s="25"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="31"/>
+      <c r="G98" s="25"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="31"/>
+      <c r="G99" s="25"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="31"/>
+      <c r="G100" s="25"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="31"/>
+      <c r="G101" s="25"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="31"/>
+      <c r="G102" s="25"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="31"/>
+      <c r="G103" s="25"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="31"/>
+      <c r="G104" s="25"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="31"/>
+      <c r="G105" s="25"/>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="31"/>
+      <c r="G106" s="25"/>
     </row>
     <row r="107" spans="7:7">
-      <c r="G107" s="31"/>
+      <c r="G107" s="25"/>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="31"/>
+      <c r="G108" s="25"/>
     </row>
     <row r="109" spans="7:7">
-      <c r="G109" s="31"/>
+      <c r="G109" s="25"/>
     </row>
     <row r="110" spans="7:7">
-      <c r="G110" s="31"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="31"/>
+      <c r="G111" s="25"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="31"/>
+      <c r="G112" s="25"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="31"/>
+      <c r="G113" s="25"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="31"/>
+      <c r="G114" s="25"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="31"/>
+      <c r="G115" s="25"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="31"/>
+      <c r="G116" s="25"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="31"/>
+      <c r="G117" s="25"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="31"/>
+      <c r="G118" s="25"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="31"/>
+      <c r="G119" s="25"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="31"/>
+      <c r="G120" s="25"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="31"/>
+      <c r="G121" s="25"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="31"/>
+      <c r="G122" s="25"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="31"/>
+      <c r="G123" s="25"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="31"/>
+      <c r="G124" s="25"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="31"/>
+      <c r="G125" s="25"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="31"/>
+      <c r="G126" s="25"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="31"/>
+      <c r="G127" s="25"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="31"/>
+      <c r="G128" s="25"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="31"/>
+      <c r="G129" s="25"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="31"/>
+      <c r="G130" s="25"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="31"/>
+      <c r="G131" s="25"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="31"/>
+      <c r="G132" s="25"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="31"/>
+      <c r="G133" s="25"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="31"/>
+      <c r="G134" s="25"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="31"/>
+      <c r="G135" s="25"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="31"/>
+      <c r="G136" s="25"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="31"/>
+      <c r="G137" s="25"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="31"/>
+      <c r="G138" s="25"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="31"/>
+      <c r="G139" s="25"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="31"/>
+      <c r="G140" s="25"/>
     </row>
     <row r="141" spans="7:7">
-      <c r="G141" s="31"/>
+      <c r="G141" s="25"/>
     </row>
     <row r="142" spans="7:7">
-      <c r="G142" s="31"/>
+      <c r="G142" s="25"/>
     </row>
     <row r="143" spans="7:7">
-      <c r="G143" s="31"/>
+      <c r="G143" s="25"/>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="31"/>
+      <c r="G144" s="25"/>
     </row>
     <row r="145" spans="7:7">
-      <c r="G145" s="31"/>
+      <c r="G145" s="25"/>
     </row>
     <row r="146" spans="7:7">
-      <c r="G146" s="31"/>
+      <c r="G146" s="25"/>
     </row>
     <row r="147" spans="7:7">
-      <c r="G147" s="31"/>
+      <c r="G147" s="25"/>
     </row>
     <row r="148" spans="7:7">
-      <c r="G148" s="31"/>
+      <c r="G148" s="25"/>
     </row>
     <row r="149" spans="7:7">
-      <c r="G149" s="31"/>
+      <c r="G149" s="25"/>
     </row>
     <row r="150" spans="7:7">
-      <c r="G150" s="31"/>
+      <c r="G150" s="25"/>
     </row>
     <row r="151" spans="7:7">
-      <c r="G151" s="31"/>
+      <c r="G151" s="25"/>
     </row>
     <row r="152" spans="7:7">
-      <c r="G152" s="31"/>
+      <c r="G152" s="25"/>
     </row>
     <row r="153" spans="7:7">
-      <c r="G153" s="31"/>
+      <c r="G153" s="25"/>
     </row>
     <row r="154" spans="7:7">
-      <c r="G154" s="31"/>
+      <c r="G154" s="25"/>
     </row>
     <row r="155" spans="7:7">
-      <c r="G155" s="31"/>
+      <c r="G155" s="25"/>
     </row>
     <row r="156" spans="7:7">
-      <c r="G156" s="31"/>
+      <c r="G156" s="25"/>
     </row>
     <row r="157" spans="7:7">
-      <c r="G157" s="31"/>
+      <c r="G157" s="25"/>
     </row>
     <row r="158" spans="7:7">
-      <c r="G158" s="31"/>
+      <c r="G158" s="25"/>
     </row>
     <row r="159" spans="7:7">
-      <c r="G159" s="31"/>
+      <c r="G159" s="25"/>
     </row>
     <row r="160" spans="7:7">
-      <c r="G160" s="31"/>
+      <c r="G160" s="25"/>
     </row>
     <row r="161" spans="7:7">
-      <c r="G161" s="31"/>
+      <c r="G161" s="25"/>
     </row>
     <row r="162" spans="7:7">
-      <c r="G162" s="31"/>
+      <c r="G162" s="25"/>
     </row>
     <row r="163" spans="7:7">
-      <c r="G163" s="31"/>
+      <c r="G163" s="25"/>
     </row>
     <row r="164" spans="7:7">
-      <c r="G164" s="31"/>
+      <c r="G164" s="25"/>
     </row>
     <row r="165" spans="7:7">
-      <c r="G165" s="31"/>
+      <c r="G165" s="25"/>
     </row>
     <row r="166" spans="7:7">
-      <c r="G166" s="31"/>
+      <c r="G166" s="25"/>
     </row>
     <row r="167" spans="7:7">
-      <c r="G167" s="31"/>
+      <c r="G167" s="25"/>
     </row>
     <row r="168" spans="7:7">
-      <c r="G168" s="31"/>
+      <c r="G168" s="25"/>
     </row>
     <row r="169" spans="7:7">
-      <c r="G169" s="31"/>
+      <c r="G169" s="25"/>
     </row>
     <row r="170" spans="7:7">
-      <c r="G170" s="31"/>
+      <c r="G170" s="25"/>
     </row>
     <row r="171" spans="7:7">
-      <c r="G171" s="31"/>
+      <c r="G171" s="25"/>
     </row>
     <row r="172" spans="7:7">
-      <c r="G172" s="31"/>
+      <c r="G172" s="25"/>
     </row>
     <row r="173" spans="7:7">
-      <c r="G173" s="31"/>
+      <c r="G173" s="25"/>
     </row>
     <row r="174" spans="7:7">
-      <c r="G174" s="31"/>
+      <c r="G174" s="25"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="31"/>
+      <c r="G175" s="25"/>
     </row>
     <row r="176" spans="7:7">
-      <c r="G176" s="31"/>
+      <c r="G176" s="25"/>
     </row>
     <row r="177" spans="7:7">
-      <c r="G177" s="31"/>
+      <c r="G177" s="25"/>
     </row>
     <row r="178" spans="7:7">
-      <c r="G178" s="31"/>
+      <c r="G178" s="25"/>
     </row>
     <row r="179" spans="7:7">
-      <c r="G179" s="31"/>
+      <c r="G179" s="25"/>
     </row>
     <row r="180" spans="7:7">
-      <c r="G180" s="31"/>
+      <c r="G180" s="25"/>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="31"/>
+      <c r="G181" s="25"/>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="31"/>
+      <c r="G182" s="25"/>
     </row>
     <row r="183" spans="7:7">
-      <c r="G183" s="31"/>
+      <c r="G183" s="25"/>
     </row>
     <row r="184" spans="7:7">
-      <c r="G184" s="31"/>
+      <c r="G184" s="25"/>
     </row>
     <row r="185" spans="7:7">
-      <c r="G185" s="31"/>
+      <c r="G185" s="25"/>
     </row>
     <row r="186" spans="7:7">
-      <c r="G186" s="31"/>
+      <c r="G186" s="25"/>
     </row>
     <row r="187" spans="7:7">
-      <c r="G187" s="31"/>
+      <c r="G187" s="25"/>
     </row>
     <row r="188" spans="7:7">
-      <c r="G188" s="31"/>
+      <c r="G188" s="25"/>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" s="31"/>
+      <c r="G189" s="25"/>
     </row>
     <row r="190" spans="7:7">
-      <c r="G190" s="31"/>
+      <c r="G190" s="25"/>
     </row>
     <row r="191" spans="7:7">
-      <c r="G191" s="31"/>
+      <c r="G191" s="25"/>
     </row>
     <row r="192" spans="7:7">
-      <c r="G192" s="31"/>
+      <c r="G192" s="25"/>
     </row>
     <row r="193" spans="7:7">
-      <c r="G193" s="31"/>
+      <c r="G193" s="25"/>
     </row>
     <row r="194" spans="7:7">
-      <c r="G194" s="31"/>
+      <c r="G194" s="25"/>
     </row>
     <row r="195" spans="7:7">
-      <c r="G195" s="31"/>
+      <c r="G195" s="25"/>
     </row>
     <row r="196" spans="7:7">
-      <c r="G196" s="31"/>
+      <c r="G196" s="25"/>
     </row>
     <row r="197" spans="7:7">
-      <c r="G197" s="31"/>
+      <c r="G197" s="25"/>
     </row>
     <row r="198" spans="7:7">
-      <c r="G198" s="31"/>
+      <c r="G198" s="25"/>
     </row>
     <row r="199" spans="7:7">
-      <c r="G199" s="31"/>
+      <c r="G199" s="25"/>
     </row>
     <row r="200" spans="7:7">
-      <c r="G200" s="31"/>
+      <c r="G200" s="25"/>
     </row>
     <row r="201" spans="7:7">
-      <c r="G201" s="31"/>
+      <c r="G201" s="25"/>
     </row>
     <row r="202" spans="7:7">
-      <c r="G202" s="31"/>
+      <c r="G202" s="25"/>
     </row>
     <row r="203" spans="7:7">
-      <c r="G203" s="31"/>
+      <c r="G203" s="25"/>
     </row>
     <row r="204" spans="7:7">
-      <c r="G204" s="31"/>
+      <c r="G204" s="25"/>
     </row>
     <row r="205" spans="7:7">
-      <c r="G205" s="31"/>
+      <c r="G205" s="25"/>
     </row>
     <row r="206" spans="7:7">
-      <c r="G206" s="31"/>
+      <c r="G206" s="25"/>
     </row>
     <row r="207" spans="7:7">
-      <c r="G207" s="31"/>
+      <c r="G207" s="25"/>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="31"/>
+      <c r="G208" s="25"/>
     </row>
     <row r="209" spans="7:7">
-      <c r="G209" s="31"/>
+      <c r="G209" s="25"/>
     </row>
     <row r="210" spans="7:7">
-      <c r="G210" s="31"/>
+      <c r="G210" s="25"/>
     </row>
     <row r="211" spans="7:7">
-      <c r="G211" s="31"/>
+      <c r="G211" s="25"/>
     </row>
     <row r="212" spans="7:7">
-      <c r="G212" s="31"/>
+      <c r="G212" s="25"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="31"/>
+      <c r="G213" s="25"/>
     </row>
     <row r="214" spans="7:7">
-      <c r="G214" s="31"/>
+      <c r="G214" s="25"/>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="31"/>
+      <c r="G215" s="25"/>
     </row>
     <row r="216" spans="7:7">
-      <c r="G216" s="31"/>
+      <c r="G216" s="25"/>
     </row>
     <row r="217" spans="7:7">
-      <c r="G217" s="31"/>
+      <c r="G217" s="25"/>
     </row>
     <row r="218" spans="7:7">
-      <c r="G218" s="31"/>
+      <c r="G218" s="25"/>
     </row>
     <row r="219" spans="7:7">
-      <c r="G219" s="31"/>
+      <c r="G219" s="25"/>
     </row>
     <row r="220" spans="7:7">
-      <c r="G220" s="31"/>
+      <c r="G220" s="25"/>
     </row>
     <row r="221" spans="7:7">
-      <c r="G221" s="31"/>
+      <c r="G221" s="25"/>
     </row>
     <row r="222" spans="7:7">
-      <c r="G222" s="31"/>
+      <c r="G222" s="25"/>
     </row>
     <row r="223" spans="7:7">
-      <c r="G223" s="31"/>
+      <c r="G223" s="25"/>
     </row>
     <row r="224" spans="7:7">
-      <c r="G224" s="31"/>
+      <c r="G224" s="25"/>
     </row>
     <row r="225" spans="7:7">
-      <c r="G225" s="31"/>
+      <c r="G225" s="25"/>
     </row>
     <row r="226" spans="7:7">
-      <c r="G226" s="31"/>
+      <c r="G226" s="25"/>
     </row>
     <row r="227" spans="7:7">
-      <c r="G227" s="31"/>
+      <c r="G227" s="25"/>
     </row>
     <row r="228" spans="7:7">
-      <c r="G228" s="31"/>
+      <c r="G228" s="25"/>
     </row>
     <row r="229" spans="7:7">
-      <c r="G229" s="31"/>
+      <c r="G229" s="25"/>
     </row>
     <row r="230" spans="7:7">
-      <c r="G230" s="31"/>
+      <c r="G230" s="25"/>
     </row>
     <row r="231" spans="7:7">
-      <c r="G231" s="31"/>
+      <c r="G231" s="25"/>
     </row>
     <row r="232" spans="7:7">
-      <c r="G232" s="31"/>
+      <c r="G232" s="25"/>
     </row>
     <row r="233" spans="7:7">
-      <c r="G233" s="31"/>
+      <c r="G233" s="25"/>
     </row>
     <row r="234" spans="7:7">
-      <c r="G234" s="31"/>
+      <c r="G234" s="25"/>
     </row>
     <row r="235" spans="7:7">
-      <c r="G235" s="31"/>
+      <c r="G235" s="25"/>
     </row>
     <row r="236" spans="7:7">
-      <c r="G236" s="31"/>
+      <c r="G236" s="25"/>
     </row>
     <row r="237" spans="7:7">
-      <c r="G237" s="31"/>
+      <c r="G237" s="25"/>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="31"/>
+      <c r="G238" s="25"/>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="31"/>
+      <c r="G239" s="25"/>
     </row>
     <row r="240" spans="7:7">
-      <c r="G240" s="31"/>
+      <c r="G240" s="25"/>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="31"/>
+      <c r="G241" s="25"/>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="31"/>
+      <c r="G242" s="25"/>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="31"/>
+      <c r="G243" s="25"/>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="31"/>
+      <c r="G244" s="25"/>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="31"/>
+      <c r="G245" s="25"/>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="31"/>
+      <c r="G246" s="25"/>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="31"/>
+      <c r="G247" s="25"/>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="31"/>
+      <c r="G248" s="25"/>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="31"/>
+      <c r="G249" s="25"/>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="31"/>
+      <c r="G250" s="25"/>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="31"/>
+      <c r="G251" s="25"/>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="31"/>
+      <c r="G252" s="25"/>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="31"/>
+      <c r="G253" s="25"/>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="31"/>
+      <c r="G254" s="25"/>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="31"/>
+      <c r="G255" s="25"/>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="31"/>
+      <c r="G256" s="25"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="31"/>
+      <c r="G257" s="25"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="31"/>
+      <c r="G258" s="25"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="31"/>
+      <c r="G259" s="25"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="31"/>
+      <c r="G260" s="25"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="31"/>
+      <c r="G261" s="25"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="31"/>
+      <c r="G262" s="25"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="31"/>
+      <c r="G263" s="25"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="31"/>
+      <c r="G264" s="25"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="31"/>
+      <c r="G265" s="25"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="31"/>
+      <c r="G266" s="25"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="31"/>
+      <c r="G267" s="25"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="31"/>
+      <c r="G268" s="25"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="31"/>
+      <c r="G269" s="25"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="31"/>
+      <c r="G270" s="25"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="31"/>
+      <c r="G271" s="25"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="31"/>
+      <c r="G272" s="25"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="31"/>
+      <c r="G273" s="25"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="31"/>
+      <c r="G274" s="25"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="31"/>
+      <c r="G275" s="25"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="31"/>
+      <c r="G276" s="25"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="31"/>
+      <c r="G277" s="25"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="31"/>
+      <c r="G278" s="25"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="31"/>
+      <c r="G279" s="25"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="31"/>
+      <c r="G280" s="25"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="31"/>
+      <c r="G281" s="25"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="31"/>
+      <c r="G282" s="25"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="31"/>
+      <c r="G283" s="25"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="31"/>
+      <c r="G284" s="25"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="31"/>
+      <c r="G285" s="25"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="31"/>
+      <c r="G286" s="25"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="31"/>
+      <c r="G287" s="25"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="31"/>
+      <c r="G288" s="25"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="31"/>
+      <c r="G289" s="25"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="31"/>
+      <c r="G290" s="25"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="31"/>
+      <c r="G291" s="25"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="31"/>
+      <c r="G292" s="25"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="31"/>
+      <c r="G293" s="25"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="31"/>
+      <c r="G294" s="25"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="31"/>
+      <c r="G295" s="25"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="31"/>
+      <c r="G296" s="25"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="31"/>
+      <c r="G297" s="25"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="31"/>
+      <c r="G298" s="25"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="31"/>
+      <c r="G299" s="25"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="31"/>
+      <c r="G300" s="25"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="31"/>
+      <c r="G301" s="25"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="31"/>
+      <c r="G302" s="25"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="31"/>
+      <c r="G303" s="25"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="31"/>
+      <c r="G304" s="25"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="31"/>
+      <c r="G305" s="25"/>
     </row>
     <row r="306" spans="7:7">
-      <c r="G306" s="31"/>
+      <c r="G306" s="25"/>
     </row>
     <row r="307" spans="7:7">
-      <c r="G307" s="31"/>
+      <c r="G307" s="25"/>
     </row>
     <row r="308" spans="7:7">
-      <c r="G308" s="31"/>
+      <c r="G308" s="25"/>
     </row>
     <row r="309" spans="7:7">
-      <c r="G309" s="31"/>
+      <c r="G309" s="25"/>
     </row>
     <row r="310" spans="7:7">
-      <c r="G310" s="31"/>
+      <c r="G310" s="25"/>
     </row>
     <row r="311" spans="7:7">
-      <c r="G311" s="31"/>
+      <c r="G311" s="25"/>
     </row>
     <row r="312" spans="7:7">
-      <c r="G312" s="31"/>
+      <c r="G312" s="25"/>
     </row>
     <row r="313" spans="7:7">
-      <c r="G313" s="31"/>
+      <c r="G313" s="25"/>
     </row>
     <row r="314" spans="7:7">
-      <c r="G314" s="31"/>
+      <c r="G314" s="25"/>
     </row>
     <row r="315" spans="7:7">
-      <c r="G315" s="31"/>
+      <c r="G315" s="25"/>
     </row>
     <row r="316" spans="7:7">
-      <c r="G316" s="31"/>
+      <c r="G316" s="25"/>
     </row>
     <row r="317" spans="7:7">
-      <c r="G317" s="31"/>
+      <c r="G317" s="25"/>
     </row>
     <row r="318" spans="7:7">
-      <c r="G318" s="31"/>
+      <c r="G318" s="25"/>
     </row>
     <row r="319" spans="7:7">
-      <c r="G319" s="31"/>
+      <c r="G319" s="25"/>
     </row>
     <row r="320" spans="7:7">
-      <c r="G320" s="31"/>
+      <c r="G320" s="25"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="31"/>
+      <c r="G321" s="25"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="31"/>
+      <c r="G322" s="25"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="31"/>
+      <c r="G323" s="25"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="31"/>
+      <c r="G324" s="25"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="31"/>
+      <c r="G325" s="25"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="31"/>
+      <c r="G326" s="25"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="31"/>
+      <c r="G327" s="25"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="31"/>
+      <c r="G328" s="25"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="31"/>
+      <c r="G329" s="25"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="31"/>
+      <c r="G330" s="25"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="31"/>
+      <c r="G331" s="25"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="31"/>
+      <c r="G332" s="25"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="31"/>
+      <c r="G333" s="25"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="31"/>
+      <c r="G334" s="25"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="31"/>
+      <c r="G335" s="25"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="31"/>
+      <c r="G336" s="25"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="31"/>
+      <c r="G337" s="25"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="31"/>
+      <c r="G338" s="25"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="31"/>
+      <c r="G339" s="25"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="31"/>
+      <c r="G340" s="25"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="31"/>
+      <c r="G341" s="25"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="31"/>
+      <c r="G342" s="25"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="31"/>
+      <c r="G343" s="25"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="31"/>
+      <c r="G344" s="25"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="31"/>
+      <c r="G345" s="25"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="31"/>
+      <c r="G346" s="25"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="31"/>
+      <c r="G347" s="25"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="31"/>
+      <c r="G348" s="25"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="31"/>
+      <c r="G349" s="25"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="31"/>
+      <c r="G350" s="25"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="31"/>
+      <c r="G351" s="25"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="31"/>
+      <c r="G352" s="25"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="31"/>
+      <c r="G353" s="25"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="31"/>
+      <c r="G354" s="25"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="31"/>
+      <c r="G355" s="25"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="31"/>
+      <c r="G356" s="25"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="31"/>
+      <c r="G357" s="25"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="31"/>
+      <c r="G358" s="25"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="31"/>
+      <c r="G359" s="25"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="31"/>
+      <c r="G360" s="25"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="31"/>
+      <c r="G361" s="25"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="31"/>
+      <c r="G362" s="25"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="31"/>
+      <c r="G363" s="25"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="31"/>
+      <c r="G364" s="25"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="31"/>
+      <c r="G365" s="25"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="31"/>
+      <c r="G366" s="25"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="31"/>
+      <c r="G367" s="25"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="31"/>
+      <c r="G368" s="25"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="31"/>
+      <c r="G369" s="25"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="31"/>
+      <c r="G370" s="25"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="31"/>
+      <c r="G371" s="25"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="31"/>
+      <c r="G372" s="25"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="31"/>
+      <c r="G373" s="25"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="31"/>
+      <c r="G374" s="25"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="31"/>
+      <c r="G375" s="25"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="31"/>
+      <c r="G376" s="25"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="31"/>
+      <c r="G377" s="25"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="31"/>
+      <c r="G378" s="25"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="31"/>
+      <c r="G379" s="25"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="31"/>
+      <c r="G380" s="25"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="31"/>
+      <c r="G381" s="25"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="31"/>
+      <c r="G382" s="25"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="31"/>
+      <c r="G383" s="25"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="31"/>
+      <c r="G384" s="25"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="31"/>
+      <c r="G385" s="25"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="31"/>
+      <c r="G386" s="25"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="31"/>
+      <c r="G387" s="25"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="31"/>
+      <c r="G388" s="25"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="31"/>
+      <c r="G389" s="25"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="31"/>
+      <c r="G390" s="25"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="31"/>
+      <c r="G391" s="25"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="31"/>
+      <c r="G392" s="25"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="31"/>
+      <c r="G393" s="25"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="31"/>
+      <c r="G394" s="25"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="31"/>
+      <c r="G395" s="25"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="31"/>
+      <c r="G396" s="25"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="31"/>
+      <c r="G397" s="25"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="31"/>
+      <c r="G398" s="25"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="31"/>
+      <c r="G399" s="25"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="31"/>
+      <c r="G400" s="25"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="31"/>
+      <c r="G401" s="25"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="31"/>
+      <c r="G402" s="25"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="31"/>
+      <c r="G403" s="25"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="31"/>
+      <c r="G404" s="25"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="31"/>
+      <c r="G405" s="25"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="31"/>
+      <c r="G406" s="25"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="31"/>
+      <c r="G407" s="25"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="31"/>
+      <c r="G408" s="25"/>
     </row>
     <row r="409" spans="7:7">
-      <c r="G409" s="31"/>
+      <c r="G409" s="25"/>
     </row>
     <row r="410" spans="7:7">
-      <c r="G410" s="31"/>
+      <c r="G410" s="25"/>
     </row>
     <row r="411" spans="7:7">
-      <c r="G411" s="31"/>
+      <c r="G411" s="25"/>
     </row>
     <row r="412" spans="7:7">
-      <c r="G412" s="31"/>
+      <c r="G412" s="25"/>
     </row>
     <row r="413" spans="7:7">
-      <c r="G413" s="31"/>
+      <c r="G413" s="25"/>
     </row>
     <row r="414" spans="7:7">
-      <c r="G414" s="31"/>
+      <c r="G414" s="25"/>
     </row>
     <row r="415" spans="7:7">
-      <c r="G415" s="31"/>
+      <c r="G415" s="25"/>
     </row>
     <row r="416" spans="7:7">
-      <c r="G416" s="31"/>
+      <c r="G416" s="25"/>
     </row>
     <row r="417" spans="7:7">
-      <c r="G417" s="31"/>
+      <c r="G417" s="25"/>
     </row>
     <row r="418" spans="7:7">
-      <c r="G418" s="31"/>
+      <c r="G418" s="25"/>
     </row>
     <row r="419" spans="7:7">
-      <c r="G419" s="31"/>
+      <c r="G419" s="25"/>
     </row>
     <row r="420" spans="7:7">
-      <c r="G420" s="31"/>
+      <c r="G420" s="25"/>
     </row>
     <row r="421" spans="7:7">
-      <c r="G421" s="31"/>
+      <c r="G421" s="25"/>
     </row>
     <row r="422" spans="7:7">
-      <c r="G422" s="31"/>
+      <c r="G422" s="25"/>
     </row>
     <row r="423" spans="7:7">
-      <c r="G423" s="31"/>
+      <c r="G423" s="25"/>
     </row>
     <row r="424" spans="7:7">
-      <c r="G424" s="31"/>
+      <c r="G424" s="25"/>
     </row>
     <row r="425" spans="7:7">
-      <c r="G425" s="31"/>
+      <c r="G425" s="25"/>
     </row>
     <row r="426" spans="7:7">
-      <c r="G426" s="31"/>
+      <c r="G426" s="25"/>
     </row>
     <row r="427" spans="7:7">
-      <c r="G427" s="31"/>
+      <c r="G427" s="25"/>
     </row>
     <row r="428" spans="7:7">
-      <c r="G428" s="31"/>
+      <c r="G428" s="25"/>
     </row>
     <row r="429" spans="7:7">
-      <c r="G429" s="31"/>
+      <c r="G429" s="25"/>
     </row>
     <row r="430" spans="7:7">
-      <c r="G430" s="31"/>
+      <c r="G430" s="25"/>
     </row>
     <row r="431" spans="7:7">
-      <c r="G431" s="31"/>
+      <c r="G431" s="25"/>
     </row>
     <row r="432" spans="7:7">
-      <c r="G432" s="31"/>
+      <c r="G432" s="25"/>
     </row>
     <row r="433" spans="7:7">
-      <c r="G433" s="31"/>
+      <c r="G433" s="25"/>
     </row>
     <row r="434" spans="7:7">
-      <c r="G434" s="31"/>
+      <c r="G434" s="25"/>
     </row>
     <row r="435" spans="7:7">
-      <c r="G435" s="31"/>
+      <c r="G435" s="25"/>
     </row>
     <row r="436" spans="7:7">
-      <c r="G436" s="31"/>
+      <c r="G436" s="25"/>
     </row>
     <row r="437" spans="7:7">
-      <c r="G437" s="31"/>
+      <c r="G437" s="25"/>
     </row>
     <row r="438" spans="7:7">
-      <c r="G438" s="31"/>
+      <c r="G438" s="25"/>
     </row>
     <row r="439" spans="7:7">
-      <c r="G439" s="31"/>
+      <c r="G439" s="25"/>
     </row>
     <row r="440" spans="7:7">
-      <c r="G440" s="31"/>
+      <c r="G440" s="25"/>
     </row>
     <row r="441" spans="7:7">
-      <c r="G441" s="31"/>
+      <c r="G441" s="25"/>
     </row>
     <row r="442" spans="7:7">
-      <c r="G442" s="31"/>
+      <c r="G442" s="25"/>
     </row>
     <row r="443" spans="7:7">
-      <c r="G443" s="31"/>
+      <c r="G443" s="25"/>
     </row>
     <row r="444" spans="7:7">
-      <c r="G444" s="31"/>
+      <c r="G444" s="25"/>
     </row>
     <row r="445" spans="7:7">
-      <c r="G445" s="31"/>
+      <c r="G445" s="25"/>
     </row>
     <row r="446" spans="7:7">
-      <c r="G446" s="31"/>
+      <c r="G446" s="25"/>
     </row>
     <row r="447" spans="7:7">
-      <c r="G447" s="31"/>
+      <c r="G447" s="25"/>
     </row>
     <row r="448" spans="7:7">
-      <c r="G448" s="31"/>
+      <c r="G448" s="25"/>
     </row>
     <row r="449" spans="7:7">
-      <c r="G449" s="31"/>
+      <c r="G449" s="25"/>
     </row>
     <row r="450" spans="7:7">
-      <c r="G450" s="31"/>
+      <c r="G450" s="25"/>
     </row>
     <row r="451" spans="7:7">
-      <c r="G451" s="31"/>
+      <c r="G451" s="25"/>
     </row>
     <row r="452" spans="7:7">
-      <c r="G452" s="31"/>
+      <c r="G452" s="25"/>
     </row>
     <row r="453" spans="7:7">
-      <c r="G453" s="31"/>
+      <c r="G453" s="25"/>
     </row>
     <row r="454" spans="7:7">
-      <c r="G454" s="31"/>
+      <c r="G454" s="25"/>
     </row>
     <row r="455" spans="7:7">
-      <c r="G455" s="31"/>
+      <c r="G455" s="25"/>
     </row>
     <row r="456" spans="7:7">
-      <c r="G456" s="31"/>
+      <c r="G456" s="25"/>
     </row>
     <row r="457" spans="7:7">
-      <c r="G457" s="31"/>
+      <c r="G457" s="25"/>
     </row>
     <row r="458" spans="7:7">
-      <c r="G458" s="31"/>
+      <c r="G458" s="25"/>
     </row>
     <row r="459" spans="7:7">
-      <c r="G459" s="31"/>
+      <c r="G459" s="25"/>
     </row>
     <row r="460" spans="7:7">
-      <c r="G460" s="31"/>
+      <c r="G460" s="25"/>
     </row>
     <row r="461" spans="7:7">
-      <c r="G461" s="31"/>
+      <c r="G461" s="25"/>
     </row>
     <row r="462" spans="7:7">
-      <c r="G462" s="31"/>
+      <c r="G462" s="25"/>
     </row>
     <row r="463" spans="7:7">
-      <c r="G463" s="31"/>
+      <c r="G463" s="25"/>
     </row>
     <row r="464" spans="7:7">
-      <c r="G464" s="31"/>
+      <c r="G464" s="25"/>
     </row>
     <row r="465" spans="7:7">
-      <c r="G465" s="31"/>
+      <c r="G465" s="25"/>
     </row>
     <row r="466" spans="7:7">
-      <c r="G466" s="31"/>
+      <c r="G466" s="25"/>
     </row>
     <row r="467" spans="7:7">
-      <c r="G467" s="31"/>
+      <c r="G467" s="25"/>
     </row>
     <row r="468" spans="7:7">
-      <c r="G468" s="31"/>
+      <c r="G468" s="25"/>
     </row>
     <row r="469" spans="7:7">
-      <c r="G469" s="31"/>
+      <c r="G469" s="25"/>
     </row>
     <row r="470" spans="7:7">
-      <c r="G470" s="31"/>
+      <c r="G470" s="25"/>
     </row>
     <row r="471" spans="7:7">
-      <c r="G471" s="31"/>
+      <c r="G471" s="25"/>
     </row>
     <row r="472" spans="7:7">
-      <c r="G472" s="31"/>
+      <c r="G472" s="25"/>
     </row>
     <row r="473" spans="7:7">
-      <c r="G473" s="31"/>
+      <c r="G473" s="25"/>
     </row>
     <row r="474" spans="7:7">
-      <c r="G474" s="31"/>
+      <c r="G474" s="25"/>
     </row>
     <row r="475" spans="7:7">
-      <c r="G475" s="31"/>
+      <c r="G475" s="25"/>
     </row>
     <row r="476" spans="7:7">
-      <c r="G476" s="31"/>
+      <c r="G476" s="25"/>
     </row>
     <row r="477" spans="7:7">
-      <c r="G477" s="31"/>
+      <c r="G477" s="25"/>
     </row>
     <row r="478" spans="7:7">
-      <c r="G478" s="31"/>
+      <c r="G478" s="25"/>
     </row>
     <row r="479" spans="7:7">
-      <c r="G479" s="31"/>
+      <c r="G479" s="25"/>
     </row>
     <row r="480" spans="7:7">
-      <c r="G480" s="31"/>
+      <c r="G480" s="25"/>
     </row>
     <row r="481" spans="7:7">
-      <c r="G481" s="31"/>
+      <c r="G481" s="25"/>
     </row>
     <row r="482" spans="7:7">
-      <c r="G482" s="31"/>
+      <c r="G482" s="25"/>
     </row>
     <row r="483" spans="7:7">
-      <c r="G483" s="31"/>
+      <c r="G483" s="25"/>
     </row>
     <row r="484" spans="7:7">
-      <c r="G484" s="31"/>
+      <c r="G484" s="25"/>
     </row>
     <row r="485" spans="7:7">
-      <c r="G485" s="31"/>
+      <c r="G485" s="25"/>
     </row>
     <row r="486" spans="7:7">
-      <c r="G486" s="31"/>
+      <c r="G486" s="25"/>
     </row>
     <row r="487" spans="7:7">
-      <c r="G487" s="31"/>
+      <c r="G487" s="25"/>
     </row>
     <row r="488" spans="7:7">
-      <c r="G488" s="31"/>
+      <c r="G488" s="25"/>
     </row>
     <row r="489" spans="7:7">
-      <c r="G489" s="31"/>
+      <c r="G489" s="25"/>
     </row>
     <row r="490" spans="7:7">
-      <c r="G490" s="31"/>
+      <c r="G490" s="25"/>
     </row>
     <row r="491" spans="7:7">
-      <c r="G491" s="31"/>
+      <c r="G491" s="25"/>
     </row>
     <row r="492" spans="7:7">
-      <c r="G492" s="31"/>
+      <c r="G492" s="25"/>
     </row>
     <row r="493" spans="7:7">
-      <c r="G493" s="31"/>
+      <c r="G493" s="25"/>
     </row>
     <row r="494" spans="7:7">
-      <c r="G494" s="31"/>
+      <c r="G494" s="25"/>
     </row>
     <row r="495" spans="7:7">
-      <c r="G495" s="31"/>
+      <c r="G495" s="25"/>
     </row>
     <row r="496" spans="7:7">
-      <c r="G496" s="31"/>
+      <c r="G496" s="25"/>
     </row>
     <row r="497" spans="7:7">
-      <c r="G497" s="31"/>
+      <c r="G497" s="25"/>
     </row>
     <row r="498" spans="7:7">
-      <c r="G498" s="31"/>
+      <c r="G498" s="25"/>
     </row>
     <row r="499" spans="7:7">
-      <c r="G499" s="31"/>
+      <c r="G499" s="25"/>
     </row>
     <row r="500" spans="7:7">
-      <c r="G500" s="31"/>
+      <c r="G500" s="25"/>
     </row>
     <row r="501" spans="7:7">
-      <c r="G501" s="31"/>
+      <c r="G501" s="25"/>
     </row>
     <row r="502" spans="7:7">
-      <c r="G502" s="31"/>
+      <c r="G502" s="25"/>
     </row>
     <row r="503" spans="7:7">
-      <c r="G503" s="31"/>
+      <c r="G503" s="25"/>
     </row>
     <row r="504" spans="7:7">
-      <c r="G504" s="31"/>
+      <c r="G504" s="25"/>
     </row>
     <row r="505" spans="7:7">
-      <c r="G505" s="31"/>
+      <c r="G505" s="25"/>
     </row>
     <row r="506" spans="7:7">
-      <c r="G506" s="31"/>
+      <c r="G506" s="25"/>
     </row>
     <row r="507" spans="7:7">
-      <c r="G507" s="31"/>
+      <c r="G507" s="25"/>
     </row>
     <row r="508" spans="7:7">
-      <c r="G508" s="31"/>
+      <c r="G508" s="25"/>
     </row>
     <row r="509" spans="7:7">
-      <c r="G509" s="31"/>
+      <c r="G509" s="25"/>
     </row>
     <row r="510" spans="7:7">
-      <c r="G510" s="31"/>
+      <c r="G510" s="25"/>
     </row>
     <row r="511" spans="7:7">
-      <c r="G511" s="31"/>
+      <c r="G511" s="25"/>
     </row>
     <row r="512" spans="7:7">
-      <c r="G512" s="31"/>
+      <c r="G512" s="25"/>
     </row>
     <row r="513" spans="7:7">
-      <c r="G513" s="31"/>
+      <c r="G513" s="25"/>
     </row>
     <row r="514" spans="7:7">
-      <c r="G514" s="31"/>
+      <c r="G514" s="25"/>
     </row>
     <row r="515" spans="7:7">
-      <c r="G515" s="31"/>
+      <c r="G515" s="25"/>
     </row>
     <row r="516" spans="7:7">
-      <c r="G516" s="31"/>
+      <c r="G516" s="25"/>
     </row>
     <row r="517" spans="7:7">
-      <c r="G517" s="31"/>
+      <c r="G517" s="25"/>
     </row>
     <row r="518" spans="7:7">
-      <c r="G518" s="31"/>
+      <c r="G518" s="25"/>
     </row>
     <row r="519" spans="7:7">
-      <c r="G519" s="31"/>
+      <c r="G519" s="25"/>
     </row>
     <row r="520" spans="7:7">
-      <c r="G520" s="31"/>
+      <c r="G520" s="25"/>
     </row>
     <row r="521" spans="7:7">
-      <c r="G521" s="31"/>
+      <c r="G521" s="25"/>
     </row>
     <row r="522" spans="7:7">
-      <c r="G522" s="31"/>
+      <c r="G522" s="25"/>
     </row>
     <row r="523" spans="7:7">
-      <c r="G523" s="31"/>
+      <c r="G523" s="25"/>
     </row>
     <row r="524" spans="7:7">
-      <c r="G524" s="31"/>
+      <c r="G524" s="25"/>
     </row>
     <row r="525" spans="7:7">
-      <c r="G525" s="31"/>
+      <c r="G525" s="25"/>
     </row>
     <row r="526" spans="7:7">
-      <c r="G526" s="31"/>
+      <c r="G526" s="25"/>
     </row>
     <row r="527" spans="7:7">
-      <c r="G527" s="31"/>
+      <c r="G527" s="25"/>
     </row>
     <row r="528" spans="7:7">
-      <c r="G528" s="31"/>
+      <c r="G528" s="25"/>
     </row>
     <row r="529" spans="7:7">
-      <c r="G529" s="31"/>
+      <c r="G529" s="25"/>
     </row>
     <row r="530" spans="7:7">
-      <c r="G530" s="31"/>
+      <c r="G530" s="25"/>
     </row>
     <row r="531" spans="7:7">
-      <c r="G531" s="31"/>
+      <c r="G531" s="25"/>
     </row>
     <row r="532" spans="7:7">
-      <c r="G532" s="31"/>
+      <c r="G532" s="25"/>
     </row>
     <row r="533" spans="7:7">
-      <c r="G533" s="31"/>
+      <c r="G533" s="25"/>
     </row>
     <row r="534" spans="7:7">
-      <c r="G534" s="31"/>
+      <c r="G534" s="25"/>
     </row>
     <row r="535" spans="7:7">
-      <c r="G535" s="31"/>
+      <c r="G535" s="25"/>
     </row>
     <row r="536" spans="7:7">
-      <c r="G536" s="31"/>
+      <c r="G536" s="25"/>
     </row>
     <row r="537" spans="7:7">
-      <c r="G537" s="31"/>
+      <c r="G537" s="25"/>
     </row>
     <row r="538" spans="7:7">
-      <c r="G538" s="31"/>
+      <c r="G538" s="25"/>
     </row>
     <row r="539" spans="7:7">
-      <c r="G539" s="31"/>
+      <c r="G539" s="25"/>
     </row>
     <row r="540" spans="7:7">
-      <c r="G540" s="31"/>
+      <c r="G540" s="25"/>
     </row>
     <row r="541" spans="7:7">
-      <c r="G541" s="31"/>
+      <c r="G541" s="25"/>
     </row>
     <row r="542" spans="7:7">
-      <c r="G542" s="31"/>
+      <c r="G542" s="25"/>
     </row>
     <row r="543" spans="7:7">
-      <c r="G543" s="31"/>
+      <c r="G543" s="25"/>
     </row>
     <row r="544" spans="7:7">
-      <c r="G544" s="31"/>
+      <c r="G544" s="25"/>
     </row>
     <row r="545" spans="7:7">
-      <c r="G545" s="31"/>
+      <c r="G545" s="25"/>
     </row>
     <row r="546" spans="7:7">
-      <c r="G546" s="31"/>
+      <c r="G546" s="25"/>
     </row>
     <row r="547" spans="7:7">
-      <c r="G547" s="31"/>
+      <c r="G547" s="25"/>
     </row>
     <row r="548" spans="7:7">
-      <c r="G548" s="31"/>
+      <c r="G548" s="25"/>
     </row>
     <row r="549" spans="7:7">
-      <c r="G549" s="31"/>
+      <c r="G549" s="25"/>
     </row>
     <row r="550" spans="7:7">
-      <c r="G550" s="31"/>
+      <c r="G550" s="25"/>
     </row>
     <row r="551" spans="7:7">
-      <c r="G551" s="31"/>
+      <c r="G551" s="25"/>
     </row>
     <row r="552" spans="7:7">
-      <c r="G552" s="31"/>
+      <c r="G552" s="25"/>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="31"/>
+      <c r="G553" s="25"/>
     </row>
     <row r="554" spans="7:7">
-      <c r="G554" s="31"/>
+      <c r="G554" s="25"/>
     </row>
     <row r="555" spans="7:7">
-      <c r="G555" s="31"/>
+      <c r="G555" s="25"/>
     </row>
     <row r="556" spans="7:7">
-      <c r="G556" s="31"/>
+      <c r="G556" s="25"/>
     </row>
     <row r="557" spans="7:7">
-      <c r="G557" s="31"/>
+      <c r="G557" s="25"/>
     </row>
     <row r="558" spans="7:7">
-      <c r="G558" s="31"/>
+      <c r="G558" s="25"/>
     </row>
     <row r="559" spans="7:7">
-      <c r="G559" s="31"/>
+      <c r="G559" s="25"/>
     </row>
     <row r="560" spans="7:7">
-      <c r="G560" s="31"/>
+      <c r="G560" s="25"/>
     </row>
     <row r="561" spans="7:7">
-      <c r="G561" s="31"/>
+      <c r="G561" s="25"/>
     </row>
     <row r="562" spans="7:7">
-      <c r="G562" s="31"/>
+      <c r="G562" s="25"/>
     </row>
     <row r="563" spans="7:7">
-      <c r="G563" s="31"/>
+      <c r="G563" s="25"/>
     </row>
     <row r="564" spans="7:7">
-      <c r="G564" s="31"/>
+      <c r="G564" s="25"/>
     </row>
     <row r="565" spans="7:7">
-      <c r="G565" s="31"/>
+      <c r="G565" s="25"/>
     </row>
     <row r="566" spans="7:7">
-      <c r="G566" s="31"/>
+      <c r="G566" s="25"/>
     </row>
     <row r="567" spans="7:7">
-      <c r="G567" s="31"/>
+      <c r="G567" s="25"/>
     </row>
     <row r="568" spans="7:7">
-      <c r="G568" s="31"/>
+      <c r="G568" s="25"/>
     </row>
     <row r="569" spans="7:7">
-      <c r="G569" s="31"/>
+      <c r="G569" s="25"/>
     </row>
     <row r="570" spans="7:7">
-      <c r="G570" s="31"/>
+      <c r="G570" s="25"/>
     </row>
     <row r="571" spans="7:7">
-      <c r="G571" s="31"/>
+      <c r="G571" s="25"/>
     </row>
     <row r="572" spans="7:7">
-      <c r="G572" s="31"/>
+      <c r="G572" s="25"/>
     </row>
     <row r="573" spans="7:7">
-      <c r="G573" s="31"/>
+      <c r="G573" s="25"/>
     </row>
     <row r="574" spans="7:7">
-      <c r="G574" s="31"/>
+      <c r="G574" s="25"/>
     </row>
     <row r="575" spans="7:7">
-      <c r="G575" s="31"/>
+      <c r="G575" s="25"/>
     </row>
     <row r="576" spans="7:7">
-      <c r="G576" s="31"/>
+      <c r="G576" s="25"/>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="31"/>
+      <c r="G577" s="25"/>
     </row>
     <row r="578" spans="7:7">
-      <c r="G578" s="31"/>
+      <c r="G578" s="25"/>
     </row>
     <row r="579" spans="7:7">
-      <c r="G579" s="31"/>
+      <c r="G579" s="25"/>
     </row>
     <row r="580" spans="7:7">
-      <c r="G580" s="31"/>
+      <c r="G580" s="25"/>
     </row>
     <row r="581" spans="7:7">
-      <c r="G581" s="31"/>
+      <c r="G581" s="25"/>
     </row>
     <row r="582" spans="7:7">
-      <c r="G582" s="31"/>
+      <c r="G582" s="25"/>
     </row>
     <row r="583" spans="7:7">
-      <c r="G583" s="31"/>
+      <c r="G583" s="25"/>
     </row>
     <row r="584" spans="7:7">
-      <c r="G584" s="31"/>
+      <c r="G584" s="25"/>
     </row>
     <row r="585" spans="7:7">
-      <c r="G585" s="31"/>
+      <c r="G585" s="25"/>
     </row>
     <row r="586" spans="7:7">
-      <c r="G586" s="31"/>
+      <c r="G586" s="25"/>
     </row>
     <row r="587" spans="7:7">
-      <c r="G587" s="31"/>
+      <c r="G587" s="25"/>
     </row>
     <row r="588" spans="7:7">
-      <c r="G588" s="31"/>
+      <c r="G588" s="25"/>
     </row>
     <row r="589" spans="7:7">
-      <c r="G589" s="31"/>
+      <c r="G589" s="25"/>
     </row>
     <row r="590" spans="7:7">
-      <c r="G590" s="31"/>
+      <c r="G590" s="25"/>
     </row>
     <row r="591" spans="7:7">
-      <c r="G591" s="31"/>
+      <c r="G591" s="25"/>
     </row>
     <row r="592" spans="7:7">
-      <c r="G592" s="31"/>
+      <c r="G592" s="25"/>
     </row>
     <row r="593" spans="7:7">
-      <c r="G593" s="31"/>
+      <c r="G593" s="25"/>
     </row>
     <row r="594" spans="7:7">
-      <c r="G594" s="31"/>
+      <c r="G594" s="25"/>
     </row>
     <row r="595" spans="7:7">
-      <c r="G595" s="31"/>
+      <c r="G595" s="25"/>
     </row>
     <row r="596" spans="7:7">
-      <c r="G596" s="31"/>
+      <c r="G596" s="25"/>
     </row>
     <row r="597" spans="7:7">
-      <c r="G597" s="31"/>
+      <c r="G597" s="25"/>
     </row>
     <row r="598" spans="7:7">
-      <c r="G598" s="31"/>
+      <c r="G598" s="25"/>
     </row>
     <row r="599" spans="7:7">
-      <c r="G599" s="31"/>
+      <c r="G599" s="25"/>
     </row>
     <row r="600" spans="7:7">
-      <c r="G600" s="31"/>
+      <c r="G600" s="25"/>
     </row>
     <row r="601" spans="7:7">
-      <c r="G601" s="31"/>
+      <c r="G601" s="25"/>
     </row>
     <row r="602" spans="7:7">
-      <c r="G602" s="31"/>
+      <c r="G602" s="25"/>
     </row>
     <row r="603" spans="7:7">
-      <c r="G603" s="31"/>
+      <c r="G603" s="25"/>
     </row>
     <row r="604" spans="7:7">
-      <c r="G604" s="31"/>
+      <c r="G604" s="25"/>
     </row>
     <row r="605" spans="7:7">
-      <c r="G605" s="31"/>
+      <c r="G605" s="25"/>
     </row>
     <row r="606" spans="7:7">
-      <c r="G606" s="31"/>
+      <c r="G606" s="25"/>
     </row>
     <row r="607" spans="7:7">
-      <c r="G607" s="31"/>
+      <c r="G607" s="25"/>
     </row>
     <row r="608" spans="7:7">
-      <c r="G608" s="31"/>
+      <c r="G608" s="25"/>
     </row>
     <row r="609" spans="7:7">
-      <c r="G609" s="31"/>
+      <c r="G609" s="25"/>
     </row>
     <row r="610" spans="7:7">
-      <c r="G610" s="31"/>
+      <c r="G610" s="25"/>
     </row>
     <row r="611" spans="7:7">
-      <c r="G611" s="31"/>
+      <c r="G611" s="25"/>
     </row>
     <row r="612" spans="7:7">
-      <c r="G612" s="31"/>
+      <c r="G612" s="25"/>
     </row>
     <row r="613" spans="7:7">
-      <c r="G613" s="31"/>
+      <c r="G613" s="25"/>
     </row>
     <row r="614" spans="7:7">
-      <c r="G614" s="31"/>
+      <c r="G614" s="25"/>
     </row>
     <row r="615" spans="7:7">
-      <c r="G615" s="31"/>
+      <c r="G615" s="25"/>
     </row>
     <row r="616" spans="7:7">
-      <c r="G616" s="31"/>
+      <c r="G616" s="25"/>
     </row>
     <row r="617" spans="7:7">
-      <c r="G617" s="31"/>
+      <c r="G617" s="25"/>
     </row>
     <row r="618" spans="7:7">
-      <c r="G618" s="31"/>
+      <c r="G618" s="25"/>
     </row>
     <row r="619" spans="7:7">
-      <c r="G619" s="31"/>
+      <c r="G619" s="25"/>
     </row>
     <row r="620" spans="7:7">
-      <c r="G620" s="31"/>
+      <c r="G620" s="25"/>
     </row>
     <row r="621" spans="7:7">
-      <c r="G621" s="31"/>
+      <c r="G621" s="25"/>
     </row>
     <row r="622" spans="7:7">
-      <c r="G622" s="31"/>
+      <c r="G622" s="25"/>
     </row>
     <row r="623" spans="7:7">
-      <c r="G623" s="31"/>
+      <c r="G623" s="25"/>
     </row>
     <row r="624" spans="7:7">
-      <c r="G624" s="31"/>
+      <c r="G624" s="25"/>
     </row>
     <row r="625" spans="7:7">
-      <c r="G625" s="31"/>
+      <c r="G625" s="25"/>
     </row>
     <row r="626" spans="7:7">
-      <c r="G626" s="31"/>
+      <c r="G626" s="25"/>
     </row>
     <row r="627" spans="7:7">
-      <c r="G627" s="31"/>
+      <c r="G627" s="25"/>
     </row>
     <row r="628" spans="7:7">
-      <c r="G628" s="31"/>
+      <c r="G628" s="25"/>
     </row>
     <row r="629" spans="7:7">
-      <c r="G629" s="31"/>
+      <c r="G629" s="25"/>
     </row>
     <row r="630" spans="7:7">
-      <c r="G630" s="31"/>
+      <c r="G630" s="25"/>
     </row>
     <row r="631" spans="7:7">
-      <c r="G631" s="31"/>
+      <c r="G631" s="25"/>
     </row>
     <row r="632" spans="7:7">
-      <c r="G632" s="31"/>
+      <c r="G632" s="25"/>
     </row>
     <row r="633" spans="7:7">
-      <c r="G633" s="31"/>
+      <c r="G633" s="25"/>
     </row>
     <row r="634" spans="7:7">
-      <c r="G634" s="31"/>
+      <c r="G634" s="25"/>
     </row>
     <row r="635" spans="7:7">
-      <c r="G635" s="31"/>
+      <c r="G635" s="25"/>
     </row>
     <row r="636" spans="7:7">
-      <c r="G636" s="31"/>
+      <c r="G636" s="25"/>
     </row>
     <row r="637" spans="7:7">
-      <c r="G637" s="31"/>
+      <c r="G637" s="25"/>
     </row>
     <row r="638" spans="7:7">
-      <c r="G638" s="31"/>
+      <c r="G638" s="25"/>
     </row>
     <row r="639" spans="7:7">
-      <c r="G639" s="31"/>
+      <c r="G639" s="25"/>
     </row>
     <row r="640" spans="7:7">
-      <c r="G640" s="31"/>
+      <c r="G640" s="25"/>
     </row>
     <row r="641" spans="7:7">
-      <c r="G641" s="31"/>
+      <c r="G641" s="25"/>
     </row>
     <row r="642" spans="7:7">
-      <c r="G642" s="31"/>
+      <c r="G642" s="25"/>
     </row>
     <row r="643" spans="7:7">
-      <c r="G643" s="31"/>
+      <c r="G643" s="25"/>
     </row>
     <row r="644" spans="7:7">
-      <c r="G644" s="31"/>
+      <c r="G644" s="25"/>
     </row>
     <row r="645" spans="7:7">
-      <c r="G645" s="31"/>
+      <c r="G645" s="25"/>
     </row>
     <row r="646" spans="7:7">
-      <c r="G646" s="31"/>
+      <c r="G646" s="25"/>
     </row>
     <row r="647" spans="7:7">
-      <c r="G647" s="31"/>
+      <c r="G647" s="25"/>
     </row>
     <row r="648" spans="7:7">
-      <c r="G648" s="31"/>
+      <c r="G648" s="25"/>
     </row>
     <row r="649" spans="7:7">
-      <c r="G649" s="31"/>
+      <c r="G649" s="25"/>
     </row>
     <row r="650" spans="7:7">
-      <c r="G650" s="31"/>
+      <c r="G650" s="25"/>
     </row>
     <row r="651" spans="7:7">
-      <c r="G651" s="31"/>
+      <c r="G651" s="25"/>
     </row>
     <row r="652" spans="7:7">
-      <c r="G652" s="31"/>
+      <c r="G652" s="25"/>
     </row>
     <row r="653" spans="7:7">
-      <c r="G653" s="31"/>
+      <c r="G653" s="25"/>
     </row>
     <row r="654" spans="7:7">
-      <c r="G654" s="31"/>
+      <c r="G654" s="25"/>
     </row>
     <row r="655" spans="7:7">
-      <c r="G655" s="31"/>
+      <c r="G655" s="25"/>
     </row>
     <row r="656" spans="7:7">
-      <c r="G656" s="31"/>
+      <c r="G656" s="25"/>
     </row>
     <row r="657" spans="7:7">
-      <c r="G657" s="31"/>
+      <c r="G657" s="25"/>
     </row>
     <row r="658" spans="7:7">
-      <c r="G658" s="31"/>
+      <c r="G658" s="25"/>
     </row>
     <row r="659" spans="7:7">
-      <c r="G659" s="31"/>
+      <c r="G659" s="25"/>
     </row>
     <row r="660" spans="7:7">
-      <c r="G660" s="31"/>
+      <c r="G660" s="25"/>
     </row>
     <row r="661" spans="7:7">
-      <c r="G661" s="31"/>
+      <c r="G661" s="25"/>
     </row>
     <row r="662" spans="7:7">
-      <c r="G662" s="31"/>
+      <c r="G662" s="25"/>
     </row>
     <row r="663" spans="7:7">
-      <c r="G663" s="31"/>
+      <c r="G663" s="25"/>
     </row>
     <row r="664" spans="7:7">
-      <c r="G664" s="31"/>
+      <c r="G664" s="25"/>
     </row>
     <row r="665" spans="7:7">
-      <c r="G665" s="31"/>
+      <c r="G665" s="25"/>
     </row>
     <row r="666" spans="7:7">
-      <c r="G666" s="31"/>
+      <c r="G666" s="25"/>
     </row>
     <row r="667" spans="7:7">
-      <c r="G667" s="31"/>
+      <c r="G667" s="25"/>
     </row>
     <row r="668" spans="7:7">
-      <c r="G668" s="31"/>
+      <c r="G668" s="25"/>
     </row>
     <row r="669" spans="7:7">
-      <c r="G669" s="31"/>
+      <c r="G669" s="25"/>
     </row>
     <row r="670" spans="7:7">
-      <c r="G670" s="31"/>
+      <c r="G670" s="25"/>
     </row>
     <row r="671" spans="7:7">
-      <c r="G671" s="31"/>
+      <c r="G671" s="25"/>
     </row>
     <row r="672" spans="7:7">
-      <c r="G672" s="31"/>
+      <c r="G672" s="25"/>
     </row>
     <row r="673" spans="7:7">
-      <c r="G673" s="31"/>
+      <c r="G673" s="25"/>
     </row>
     <row r="674" spans="7:7">
-      <c r="G674" s="31"/>
+      <c r="G674" s="25"/>
     </row>
     <row r="675" spans="7:7">
-      <c r="G675" s="31"/>
+      <c r="G675" s="25"/>
     </row>
     <row r="676" spans="7:7">
-      <c r="G676" s="31"/>
+      <c r="G676" s="25"/>
     </row>
     <row r="677" spans="7:7">
-      <c r="G677" s="31"/>
+      <c r="G677" s="25"/>
     </row>
     <row r="678" spans="7:7">
-      <c r="G678" s="31"/>
+      <c r="G678" s="25"/>
     </row>
     <row r="679" spans="7:7">
-      <c r="G679" s="31"/>
+      <c r="G679" s="25"/>
     </row>
     <row r="680" spans="7:7">
-      <c r="G680" s="31"/>
+      <c r="G680" s="25"/>
     </row>
     <row r="681" spans="7:7">
-      <c r="G681" s="31"/>
+      <c r="G681" s="25"/>
     </row>
     <row r="682" spans="7:7">
-      <c r="G682" s="31"/>
+      <c r="G682" s="25"/>
     </row>
     <row r="683" spans="7:7">
-      <c r="G683" s="31"/>
+      <c r="G683" s="25"/>
     </row>
     <row r="684" spans="7:7">
-      <c r="G684" s="31"/>
+      <c r="G684" s="25"/>
     </row>
     <row r="685" spans="7:7">
-      <c r="G685" s="31"/>
+      <c r="G685" s="25"/>
     </row>
     <row r="686" spans="7:7">
-      <c r="G686" s="31"/>
+      <c r="G686" s="25"/>
     </row>
     <row r="687" spans="7:7">
-      <c r="G687" s="31"/>
+      <c r="G687" s="25"/>
     </row>
     <row r="688" spans="7:7">
-      <c r="G688" s="31"/>
+      <c r="G688" s="25"/>
     </row>
     <row r="689" spans="7:7">
-      <c r="G689" s="31"/>
+      <c r="G689" s="25"/>
     </row>
     <row r="690" spans="7:7">
-      <c r="G690" s="31"/>
+      <c r="G690" s="25"/>
     </row>
     <row r="691" spans="7:7">
-      <c r="G691" s="31"/>
+      <c r="G691" s="25"/>
     </row>
     <row r="692" spans="7:7">
-      <c r="G692" s="31"/>
+      <c r="G692" s="25"/>
     </row>
     <row r="693" spans="7:7">
-      <c r="G693" s="31"/>
+      <c r="G693" s="25"/>
     </row>
     <row r="694" spans="7:7">
-      <c r="G694" s="31"/>
+      <c r="G694" s="25"/>
     </row>
     <row r="695" spans="7:7">
-      <c r="G695" s="31"/>
+      <c r="G695" s="25"/>
     </row>
     <row r="696" spans="7:7">
-      <c r="G696" s="31"/>
+      <c r="G696" s="25"/>
     </row>
     <row r="697" spans="7:7">
-      <c r="G697" s="31"/>
+      <c r="G697" s="25"/>
     </row>
     <row r="698" spans="7:7">
-      <c r="G698" s="31"/>
+      <c r="G698" s="25"/>
     </row>
     <row r="699" spans="7:7">
-      <c r="G699" s="31"/>
+      <c r="G699" s="25"/>
     </row>
     <row r="700" spans="7:7">
-      <c r="G700" s="31"/>
+      <c r="G700" s="25"/>
     </row>
     <row r="701" spans="7:7">
-      <c r="G701" s="31"/>
+      <c r="G701" s="25"/>
     </row>
     <row r="702" spans="7:7">
-      <c r="G702" s="31"/>
+      <c r="G702" s="25"/>
     </row>
     <row r="703" spans="7:7">
-      <c r="G703" s="31"/>
+      <c r="G703" s="25"/>
     </row>
     <row r="704" spans="7:7">
-      <c r="G704" s="31"/>
+      <c r="G704" s="25"/>
     </row>
     <row r="705" spans="7:7">
-      <c r="G705" s="31"/>
+      <c r="G705" s="25"/>
     </row>
     <row r="706" spans="7:7">
-      <c r="G706" s="31"/>
+      <c r="G706" s="25"/>
     </row>
     <row r="707" spans="7:7">
-      <c r="G707" s="31"/>
+      <c r="G707" s="25"/>
     </row>
     <row r="708" spans="7:7">
-      <c r="G708" s="31"/>
+      <c r="G708" s="25"/>
     </row>
     <row r="709" spans="7:7">
-      <c r="G709" s="31"/>
+      <c r="G709" s="25"/>
     </row>
     <row r="710" spans="7:7">
-      <c r="G710" s="31"/>
+      <c r="G710" s="25"/>
     </row>
     <row r="711" spans="7:7">
-      <c r="G711" s="31"/>
+      <c r="G711" s="25"/>
     </row>
     <row r="712" spans="7:7">
-      <c r="G712" s="31"/>
+      <c r="G712" s="25"/>
     </row>
     <row r="713" spans="7:7">
-      <c r="G713" s="31"/>
+      <c r="G713" s="25"/>
     </row>
     <row r="714" spans="7:7">
-      <c r="G714" s="31"/>
+      <c r="G714" s="25"/>
     </row>
     <row r="715" spans="7:7">
-      <c r="G715" s="31"/>
+      <c r="G715" s="25"/>
     </row>
     <row r="716" spans="7:7">
-      <c r="G716" s="31"/>
+      <c r="G716" s="25"/>
     </row>
     <row r="717" spans="7:7">
-      <c r="G717" s="31"/>
+      <c r="G717" s="25"/>
     </row>
     <row r="718" spans="7:7">
-      <c r="G718" s="31"/>
+      <c r="G718" s="25"/>
     </row>
     <row r="719" spans="7:7">
-      <c r="G719" s="31"/>
+      <c r="G719" s="25"/>
     </row>
     <row r="720" spans="7:7">
-      <c r="G720" s="31"/>
+      <c r="G720" s="25"/>
     </row>
     <row r="721" spans="7:7">
-      <c r="G721" s="31"/>
+      <c r="G721" s="25"/>
     </row>
     <row r="722" spans="7:7">
-      <c r="G722" s="31"/>
+      <c r="G722" s="25"/>
     </row>
     <row r="723" spans="7:7">
-      <c r="G723" s="31"/>
+      <c r="G723" s="25"/>
     </row>
     <row r="724" spans="7:7">
-      <c r="G724" s="31"/>
+      <c r="G724" s="25"/>
     </row>
     <row r="725" spans="7:7">
-      <c r="G725" s="31"/>
+      <c r="G725" s="25"/>
     </row>
     <row r="726" spans="7:7">
-      <c r="G726" s="31"/>
+      <c r="G726" s="25"/>
     </row>
     <row r="727" spans="7:7">
-      <c r="G727" s="31"/>
+      <c r="G727" s="25"/>
     </row>
     <row r="728" spans="7:7">
-      <c r="G728" s="31"/>
+      <c r="G728" s="25"/>
     </row>
     <row r="729" spans="7:7">
-      <c r="G729" s="31"/>
+      <c r="G729" s="25"/>
     </row>
     <row r="730" spans="7:7">
-      <c r="G730" s="31"/>
+      <c r="G730" s="25"/>
     </row>
     <row r="731" spans="7:7">
-      <c r="G731" s="31"/>
+      <c r="G731" s="25"/>
     </row>
     <row r="732" spans="7:7">
-      <c r="G732" s="31"/>
+      <c r="G732" s="25"/>
     </row>
     <row r="733" spans="7:7">
-      <c r="G733" s="31"/>
+      <c r="G733" s="25"/>
     </row>
     <row r="734" spans="7:7">
-      <c r="G734" s="31"/>
+      <c r="G734" s="25"/>
     </row>
     <row r="735" spans="7:7">
-      <c r="G735" s="31"/>
+      <c r="G735" s="25"/>
     </row>
     <row r="736" spans="7:7">
-      <c r="G736" s="31"/>
+      <c r="G736" s="25"/>
     </row>
     <row r="737" spans="7:7">
-      <c r="G737" s="31"/>
+      <c r="G737" s="25"/>
     </row>
     <row r="738" spans="7:7">
-      <c r="G738" s="31"/>
+      <c r="G738" s="25"/>
     </row>
     <row r="739" spans="7:7">
-      <c r="G739" s="31"/>
+      <c r="G739" s="25"/>
     </row>
     <row r="740" spans="7:7">
-      <c r="G740" s="31"/>
+      <c r="G740" s="25"/>
     </row>
     <row r="741" spans="7:7">
-      <c r="G741" s="31"/>
+      <c r="G741" s="25"/>
     </row>
     <row r="742" spans="7:7">
-      <c r="G742" s="31"/>
+      <c r="G742" s="25"/>
     </row>
     <row r="743" spans="7:7">
-      <c r="G743" s="31"/>
+      <c r="G743" s="25"/>
     </row>
     <row r="744" spans="7:7">
-      <c r="G744" s="31"/>
+      <c r="G744" s="25"/>
     </row>
     <row r="745" spans="7:7">
-      <c r="G745" s="31"/>
+      <c r="G745" s="25"/>
     </row>
     <row r="746" spans="7:7">
-      <c r="G746" s="31"/>
+      <c r="G746" s="25"/>
     </row>
     <row r="747" spans="7:7">
-      <c r="G747" s="31"/>
+      <c r="G747" s="25"/>
     </row>
     <row r="748" spans="7:7">
-      <c r="G748" s="31"/>
+      <c r="G748" s="25"/>
     </row>
     <row r="749" spans="7:7">
-      <c r="G749" s="31"/>
+      <c r="G749" s="25"/>
     </row>
     <row r="750" spans="7:7">
-      <c r="G750" s="31"/>
+      <c r="G750" s="25"/>
     </row>
     <row r="751" spans="7:7">
-      <c r="G751" s="31"/>
+      <c r="G751" s="25"/>
     </row>
     <row r="752" spans="7:7">
-      <c r="G752" s="31"/>
+      <c r="G752" s="25"/>
     </row>
     <row r="753" spans="7:7">
-      <c r="G753" s="31"/>
+      <c r="G753" s="25"/>
     </row>
     <row r="754" spans="7:7">
-      <c r="G754" s="31"/>
+      <c r="G754" s="25"/>
     </row>
     <row r="755" spans="7:7">
-      <c r="G755" s="31"/>
+      <c r="G755" s="25"/>
     </row>
     <row r="756" spans="7:7">
-      <c r="G756" s="31"/>
+      <c r="G756" s="25"/>
     </row>
     <row r="757" spans="7:7">
-      <c r="G757" s="31"/>
+      <c r="G757" s="25"/>
     </row>
     <row r="758" spans="7:7">
-      <c r="G758" s="31"/>
+      <c r="G758" s="25"/>
     </row>
     <row r="759" spans="7:7">
-      <c r="G759" s="31"/>
+      <c r="G759" s="25"/>
     </row>
     <row r="760" spans="7:7">
-      <c r="G760" s="31"/>
+      <c r="G760" s="25"/>
     </row>
     <row r="761" spans="7:7">
-      <c r="G761" s="31"/>
+      <c r="G761" s="25"/>
     </row>
     <row r="762" spans="7:7">
-      <c r="G762" s="31"/>
+      <c r="G762" s="25"/>
     </row>
     <row r="763" spans="7:7">
-      <c r="G763" s="31"/>
+      <c r="G763" s="25"/>
     </row>
     <row r="764" spans="7:7">
-      <c r="G764" s="31"/>
+      <c r="G764" s="25"/>
     </row>
     <row r="765" spans="7:7">
-      <c r="G765" s="31"/>
+      <c r="G765" s="25"/>
     </row>
     <row r="766" spans="7:7">
-      <c r="G766" s="31"/>
+      <c r="G766" s="25"/>
     </row>
     <row r="767" spans="7:7">
-      <c r="G767" s="31"/>
+      <c r="G767" s="25"/>
     </row>
     <row r="768" spans="7:7">
-      <c r="G768" s="31"/>
+      <c r="G768" s="25"/>
     </row>
     <row r="769" spans="7:7">
-      <c r="G769" s="31"/>
+      <c r="G769" s="25"/>
     </row>
     <row r="770" spans="7:7">
-      <c r="G770" s="31"/>
+      <c r="G770" s="25"/>
     </row>
     <row r="771" spans="7:7">
-      <c r="G771" s="31"/>
+      <c r="G771" s="25"/>
     </row>
     <row r="772" spans="7:7">
-      <c r="G772" s="31"/>
+      <c r="G772" s="25"/>
     </row>
     <row r="773" spans="7:7">
-      <c r="G773" s="31"/>
+      <c r="G773" s="25"/>
     </row>
     <row r="774" spans="7:7">
-      <c r="G774" s="31"/>
+      <c r="G774" s="25"/>
     </row>
     <row r="775" spans="7:7">
-      <c r="G775" s="31"/>
+      <c r="G775" s="25"/>
     </row>
     <row r="776" spans="7:7">
-      <c r="G776" s="31"/>
+      <c r="G776" s="25"/>
     </row>
     <row r="777" spans="7:7">
-      <c r="G777" s="31"/>
+      <c r="G777" s="25"/>
     </row>
     <row r="778" spans="7:7">
-      <c r="G778" s="31"/>
+      <c r="G778" s="25"/>
     </row>
     <row r="779" spans="7:7">
-      <c r="G779" s="31"/>
+      <c r="G779" s="25"/>
     </row>
     <row r="780" spans="7:7">
-      <c r="G780" s="31"/>
+      <c r="G780" s="25"/>
     </row>
     <row r="781" spans="7:7">
-      <c r="G781" s="31"/>
+      <c r="G781" s="25"/>
     </row>
     <row r="782" spans="7:7">
-      <c r="G782" s="31"/>
+      <c r="G782" s="25"/>
     </row>
     <row r="783" spans="7:7">
-      <c r="G783" s="31"/>
+      <c r="G783" s="25"/>
     </row>
     <row r="784" spans="7:7">
-      <c r="G784" s="31"/>
+      <c r="G784" s="25"/>
     </row>
     <row r="785" spans="7:7">
-      <c r="G785" s="31"/>
+      <c r="G785" s="25"/>
     </row>
     <row r="786" spans="7:7">
-      <c r="G786" s="31"/>
+      <c r="G786" s="25"/>
     </row>
     <row r="787" spans="7:7">
-      <c r="G787" s="31"/>
+      <c r="G787" s="25"/>
     </row>
     <row r="788" spans="7:7">
-      <c r="G788" s="31"/>
+      <c r="G788" s="25"/>
     </row>
     <row r="789" spans="7:7">
-      <c r="G789" s="31"/>
+      <c r="G789" s="25"/>
     </row>
     <row r="790" spans="7:7">
-      <c r="G790" s="31"/>
+      <c r="G790" s="25"/>
     </row>
     <row r="791" spans="7:7">
-      <c r="G791" s="31"/>
+      <c r="G791" s="25"/>
     </row>
     <row r="792" spans="7:7">
-      <c r="G792" s="31"/>
+      <c r="G792" s="25"/>
     </row>
     <row r="793" spans="7:7">
-      <c r="G793" s="31"/>
+      <c r="G793" s="25"/>
     </row>
     <row r="794" spans="7:7">
-      <c r="G794" s="31"/>
+      <c r="G794" s="25"/>
     </row>
     <row r="795" spans="7:7">
-      <c r="G795" s="31"/>
+      <c r="G795" s="25"/>
     </row>
     <row r="796" spans="7:7">
-      <c r="G796" s="31"/>
+      <c r="G796" s="25"/>
     </row>
     <row r="797" spans="7:7">
-      <c r="G797" s="31"/>
+      <c r="G797" s="25"/>
     </row>
     <row r="798" spans="7:7">
-      <c r="G798" s="31"/>
+      <c r="G798" s="25"/>
     </row>
     <row r="799" spans="7:7">
-      <c r="G799" s="31"/>
+      <c r="G799" s="25"/>
     </row>
     <row r="800" spans="7:7">
-      <c r="G800" s="31"/>
+      <c r="G800" s="25"/>
     </row>
     <row r="801" spans="7:7">
-      <c r="G801" s="31"/>
+      <c r="G801" s="25"/>
     </row>
     <row r="802" spans="7:7">
-      <c r="G802" s="31"/>
+      <c r="G802" s="25"/>
     </row>
     <row r="803" spans="7:7">
-      <c r="G803" s="31"/>
+      <c r="G803" s="25"/>
     </row>
     <row r="804" spans="7:7">
-      <c r="G804" s="31"/>
+      <c r="G804" s="25"/>
     </row>
     <row r="805" spans="7:7">
-      <c r="G805" s="31"/>
+      <c r="G805" s="25"/>
     </row>
     <row r="806" spans="7:7">
-      <c r="G806" s="31"/>
+      <c r="G806" s="25"/>
     </row>
     <row r="807" spans="7:7">
-      <c r="G807" s="31"/>
+      <c r="G807" s="25"/>
     </row>
     <row r="808" spans="7:7">
-      <c r="G808" s="31"/>
+      <c r="G808" s="25"/>
     </row>
     <row r="809" spans="7:7">
-      <c r="G809" s="31"/>
+      <c r="G809" s="25"/>
     </row>
     <row r="810" spans="7:7">
-      <c r="G810" s="31"/>
+      <c r="G810" s="25"/>
     </row>
     <row r="811" spans="7:7">
-      <c r="G811" s="31"/>
+      <c r="G811" s="25"/>
     </row>
     <row r="812" spans="7:7">
-      <c r="G812" s="31"/>
+      <c r="G812" s="25"/>
     </row>
     <row r="813" spans="7:7">
-      <c r="G813" s="31"/>
+      <c r="G813" s="25"/>
     </row>
     <row r="814" spans="7:7">
-      <c r="G814" s="31"/>
+      <c r="G814" s="25"/>
     </row>
     <row r="815" spans="7:7">
-      <c r="G815" s="31"/>
+      <c r="G815" s="25"/>
     </row>
     <row r="816" spans="7:7">
-      <c r="G816" s="31"/>
+      <c r="G816" s="25"/>
     </row>
     <row r="817" spans="7:7">
-      <c r="G817" s="31"/>
+      <c r="G817" s="25"/>
     </row>
     <row r="818" spans="7:7">
-      <c r="G818" s="31"/>
+      <c r="G818" s="25"/>
     </row>
     <row r="819" spans="7:7">
-      <c r="G819" s="31"/>
+      <c r="G819" s="25"/>
     </row>
     <row r="820" spans="7:7">
-      <c r="G820" s="31"/>
+      <c r="G820" s="25"/>
     </row>
     <row r="821" spans="7:7">
-      <c r="G821" s="31"/>
+      <c r="G821" s="25"/>
     </row>
     <row r="822" spans="7:7">
-      <c r="G822" s="31"/>
+      <c r="G822" s="25"/>
     </row>
     <row r="823" spans="7:7">
-      <c r="G823" s="31"/>
+      <c r="G823" s="25"/>
     </row>
     <row r="824" spans="7:7">
-      <c r="G824" s="31"/>
+      <c r="G824" s="25"/>
     </row>
     <row r="825" spans="7:7">
-      <c r="G825" s="31"/>
+      <c r="G825" s="25"/>
     </row>
     <row r="826" spans="7:7">
-      <c r="G826" s="31"/>
+      <c r="G826" s="25"/>
     </row>
     <row r="827" spans="7:7">
-      <c r="G827" s="31"/>
+      <c r="G827" s="25"/>
     </row>
     <row r="828" spans="7:7">
-      <c r="G828" s="31"/>
+      <c r="G828" s="25"/>
     </row>
     <row r="829" spans="7:7">
-      <c r="G829" s="31"/>
+      <c r="G829" s="25"/>
     </row>
     <row r="830" spans="7:7">
-      <c r="G830" s="31"/>
+      <c r="G830" s="25"/>
     </row>
     <row r="831" spans="7:7">
-      <c r="G831" s="31"/>
+      <c r="G831" s="25"/>
     </row>
     <row r="832" spans="7:7">
-      <c r="G832" s="31"/>
+      <c r="G832" s="25"/>
     </row>
     <row r="833" spans="7:7">
-      <c r="G833" s="31"/>
+      <c r="G833" s="25"/>
     </row>
     <row r="834" spans="7:7">
-      <c r="G834" s="31"/>
+      <c r="G834" s="25"/>
     </row>
     <row r="835" spans="7:7">
-      <c r="G835" s="31"/>
+      <c r="G835" s="25"/>
     </row>
     <row r="836" spans="7:7">
-      <c r="G836" s="31"/>
+      <c r="G836" s="25"/>
     </row>
     <row r="837" spans="7:7">
-      <c r="G837" s="31"/>
+      <c r="G837" s="25"/>
     </row>
     <row r="838" spans="7:7">
-      <c r="G838" s="31"/>
+      <c r="G838" s="25"/>
     </row>
     <row r="839" spans="7:7">
-      <c r="G839" s="31"/>
+      <c r="G839" s="25"/>
     </row>
     <row r="840" spans="7:7">
-      <c r="G840" s="31"/>
+      <c r="G840" s="25"/>
     </row>
     <row r="841" spans="7:7">
-      <c r="G841" s="31"/>
+      <c r="G841" s="25"/>
     </row>
     <row r="842" spans="7:7">
-      <c r="G842" s="31"/>
+      <c r="G842" s="25"/>
     </row>
     <row r="843" spans="7:7">
-      <c r="G843" s="31"/>
+      <c r="G843" s="25"/>
     </row>
     <row r="844" spans="7:7">
-      <c r="G844" s="31"/>
+      <c r="G844" s="25"/>
     </row>
     <row r="845" spans="7:7">
-      <c r="G845" s="31"/>
+      <c r="G845" s="25"/>
     </row>
     <row r="846" spans="7:7">
-      <c r="G846" s="31"/>
+      <c r="G846" s="25"/>
     </row>
     <row r="847" spans="7:7">
-      <c r="G847" s="31"/>
+      <c r="G847" s="25"/>
     </row>
     <row r="848" spans="7:7">
-      <c r="G848" s="31"/>
+      <c r="G848" s="25"/>
     </row>
     <row r="849" spans="7:7">
-      <c r="G849" s="31"/>
+      <c r="G849" s="25"/>
     </row>
     <row r="850" spans="7:7">
-      <c r="G850" s="31"/>
+      <c r="G850" s="25"/>
     </row>
     <row r="851" spans="7:7">
-      <c r="G851" s="31"/>
+      <c r="G851" s="25"/>
     </row>
     <row r="852" spans="7:7">
-      <c r="G852" s="31"/>
+      <c r="G852" s="25"/>
     </row>
     <row r="853" spans="7:7">
-      <c r="G853" s="31"/>
+      <c r="G853" s="25"/>
     </row>
     <row r="854" spans="7:7">
-      <c r="G854" s="31"/>
+      <c r="G854" s="25"/>
     </row>
     <row r="855" spans="7:7">
-      <c r="G855" s="31"/>
+      <c r="G855" s="25"/>
     </row>
     <row r="856" spans="7:7">
-      <c r="G856" s="31"/>
+      <c r="G856" s="25"/>
     </row>
     <row r="857" spans="7:7">
-      <c r="G857" s="31"/>
+      <c r="G857" s="25"/>
     </row>
     <row r="858" spans="7:7">
-      <c r="G858" s="31"/>
+      <c r="G858" s="25"/>
     </row>
     <row r="859" spans="7:7">
-      <c r="G859" s="31"/>
+      <c r="G859" s="25"/>
     </row>
     <row r="860" spans="7:7">
-      <c r="G860" s="31"/>
+      <c r="G860" s="25"/>
     </row>
     <row r="861" spans="7:7">
-      <c r="G861" s="31"/>
+      <c r="G861" s="25"/>
     </row>
     <row r="862" spans="7:7">
-      <c r="G862" s="31"/>
+      <c r="G862" s="25"/>
     </row>
     <row r="863" spans="7:7">
-      <c r="G863" s="31"/>
+      <c r="G863" s="25"/>
     </row>
     <row r="864" spans="7:7">
-      <c r="G864" s="31"/>
+      <c r="G864" s="25"/>
     </row>
     <row r="865" spans="7:7">
-      <c r="G865" s="31"/>
+      <c r="G865" s="25"/>
     </row>
     <row r="866" spans="7:7">
-      <c r="G866" s="31"/>
+      <c r="G866" s="25"/>
     </row>
     <row r="867" spans="7:7">
-      <c r="G867" s="31"/>
+      <c r="G867" s="25"/>
     </row>
     <row r="868" spans="7:7">
-      <c r="G868" s="31"/>
+      <c r="G868" s="25"/>
     </row>
     <row r="869" spans="7:7">
-      <c r="G869" s="31"/>
+      <c r="G869" s="25"/>
     </row>
     <row r="870" spans="7:7">
-      <c r="G870" s="31"/>
+      <c r="G870" s="25"/>
     </row>
     <row r="871" spans="7:7">
-      <c r="G871" s="31"/>
+      <c r="G871" s="25"/>
     </row>
     <row r="872" spans="7:7">
-      <c r="G872" s="31"/>
+      <c r="G872" s="25"/>
     </row>
     <row r="873" spans="7:7">
-      <c r="G873" s="31"/>
+      <c r="G873" s="25"/>
     </row>
     <row r="874" spans="7:7">
-      <c r="G874" s="31"/>
+      <c r="G874" s="25"/>
     </row>
     <row r="875" spans="7:7">
-      <c r="G875" s="31"/>
+      <c r="G875" s="25"/>
     </row>
     <row r="876" spans="7:7">
-      <c r="G876" s="31"/>
+      <c r="G876" s="25"/>
     </row>
     <row r="877" spans="7:7">
-      <c r="G877" s="31"/>
+      <c r="G877" s="25"/>
     </row>
     <row r="878" spans="7:7">
-      <c r="G878" s="31"/>
+      <c r="G878" s="25"/>
     </row>
     <row r="879" spans="7:7">
-      <c r="G879" s="31"/>
+      <c r="G879" s="25"/>
     </row>
     <row r="880" spans="7:7">
-      <c r="G880" s="31"/>
+      <c r="G880" s="25"/>
     </row>
     <row r="881" spans="7:7">
-      <c r="G881" s="31"/>
+      <c r="G881" s="25"/>
     </row>
     <row r="882" spans="7:7">
-      <c r="G882" s="31"/>
+      <c r="G882" s="25"/>
     </row>
     <row r="883" spans="7:7">
-      <c r="G883" s="31"/>
+      <c r="G883" s="25"/>
     </row>
     <row r="884" spans="7:7">
-      <c r="G884" s="31"/>
+      <c r="G884" s="25"/>
     </row>
     <row r="885" spans="7:7">
-      <c r="G885" s="31"/>
+      <c r="G885" s="25"/>
     </row>
     <row r="886" spans="7:7">
-      <c r="G886" s="31"/>
+      <c r="G886" s="25"/>
     </row>
     <row r="887" spans="7:7">
-      <c r="G887" s="31"/>
+      <c r="G887" s="25"/>
     </row>
     <row r="888" spans="7:7">
-      <c r="G888" s="31"/>
+      <c r="G888" s="25"/>
     </row>
     <row r="889" spans="7:7">
-      <c r="G889" s="31"/>
+      <c r="G889" s="25"/>
     </row>
     <row r="890" spans="7:7">
-      <c r="G890" s="31"/>
+      <c r="G890" s="25"/>
     </row>
     <row r="891" spans="7:7">
-      <c r="G891" s="31"/>
+      <c r="G891" s="25"/>
     </row>
     <row r="892" spans="7:7">
-      <c r="G892" s="31"/>
+      <c r="G892" s="25"/>
     </row>
     <row r="893" spans="7:7">
-      <c r="G893" s="31"/>
+      <c r="G893" s="25"/>
     </row>
     <row r="894" spans="7:7">
-      <c r="G894" s="31"/>
+      <c r="G894" s="25"/>
     </row>
     <row r="895" spans="7:7">
-      <c r="G895" s="31"/>
+      <c r="G895" s="25"/>
     </row>
     <row r="896" spans="7:7">
-      <c r="G896" s="31"/>
+      <c r="G896" s="25"/>
     </row>
     <row r="897" spans="7:7">
-      <c r="G897" s="31"/>
+      <c r="G897" s="25"/>
     </row>
     <row r="898" spans="7:7">
-      <c r="G898" s="31"/>
+      <c r="G898" s="25"/>
     </row>
     <row r="899" spans="7:7">
-      <c r="G899" s="31"/>
+      <c r="G899" s="25"/>
     </row>
     <row r="900" spans="7:7">
-      <c r="G900" s="31"/>
+      <c r="G900" s="25"/>
     </row>
     <row r="901" spans="7:7">
-      <c r="G901" s="31"/>
+      <c r="G901" s="25"/>
     </row>
     <row r="902" spans="7:7">
-      <c r="G902" s="31"/>
+      <c r="G902" s="25"/>
     </row>
     <row r="903" spans="7:7">
-      <c r="G903" s="31"/>
+      <c r="G903" s="25"/>
     </row>
     <row r="904" spans="7:7">
-      <c r="G904" s="31"/>
+      <c r="G904" s="25"/>
     </row>
     <row r="905" spans="7:7">
-      <c r="G905" s="31"/>
+      <c r="G905" s="25"/>
     </row>
     <row r="906" spans="7:7">
-      <c r="G906" s="31"/>
+      <c r="G906" s="25"/>
     </row>
     <row r="907" spans="7:7">
-      <c r="G907" s="31"/>
+      <c r="G907" s="25"/>
     </row>
     <row r="908" spans="7:7">
-      <c r="G908" s="31"/>
+      <c r="G908" s="25"/>
     </row>
     <row r="909" spans="7:7">
-      <c r="G909" s="31"/>
+      <c r="G909" s="25"/>
     </row>
     <row r="910" spans="7:7">
-      <c r="G910" s="31"/>
+      <c r="G910" s="25"/>
     </row>
     <row r="911" spans="7:7">
-      <c r="G911" s="31"/>
+      <c r="G911" s="25"/>
     </row>
     <row r="912" spans="7:7">
-      <c r="G912" s="31"/>
+      <c r="G912" s="25"/>
     </row>
     <row r="913" spans="7:7">
-      <c r="G913" s="31"/>
+      <c r="G913" s="25"/>
     </row>
     <row r="914" spans="7:7">
-      <c r="G914" s="31"/>
+      <c r="G914" s="25"/>
     </row>
     <row r="915" spans="7:7">
-      <c r="G915" s="31"/>
+      <c r="G915" s="25"/>
     </row>
     <row r="916" spans="7:7">
-      <c r="G916" s="31"/>
+      <c r="G916" s="25"/>
     </row>
     <row r="917" spans="7:7">
-      <c r="G917" s="31"/>
+      <c r="G917" s="25"/>
     </row>
     <row r="918" spans="7:7">
-      <c r="G918" s="31"/>
+      <c r="G918" s="25"/>
     </row>
     <row r="919" spans="7:7">
-      <c r="G919" s="31"/>
+      <c r="G919" s="25"/>
     </row>
     <row r="920" spans="7:7">
-      <c r="G920" s="31"/>
+      <c r="G920" s="25"/>
     </row>
     <row r="921" spans="7:7">
-      <c r="G921" s="31"/>
+      <c r="G921" s="25"/>
     </row>
     <row r="922" spans="7:7">
-      <c r="G922" s="31"/>
+      <c r="G922" s="25"/>
     </row>
     <row r="923" spans="7:7">
-      <c r="G923" s="31"/>
+      <c r="G923" s="25"/>
     </row>
     <row r="924" spans="7:7">
-      <c r="G924" s="31"/>
+      <c r="G924" s="25"/>
     </row>
     <row r="925" spans="7:7">
-      <c r="G925" s="31"/>
+      <c r="G925" s="25"/>
     </row>
     <row r="926" spans="7:7">
-      <c r="G926" s="31"/>
+      <c r="G926" s="25"/>
     </row>
     <row r="927" spans="7:7">
-      <c r="G927" s="31"/>
+      <c r="G927" s="25"/>
     </row>
     <row r="928" spans="7:7">
-      <c r="G928" s="31"/>
+      <c r="G928" s="25"/>
     </row>
     <row r="929" spans="7:7">
-      <c r="G929" s="31"/>
+      <c r="G929" s="25"/>
     </row>
     <row r="930" spans="7:7">
-      <c r="G930" s="31"/>
+      <c r="G930" s="25"/>
     </row>
     <row r="931" spans="7:7">
-      <c r="G931" s="31"/>
+      <c r="G931" s="25"/>
     </row>
     <row r="932" spans="7:7">
-      <c r="G932" s="31"/>
+      <c r="G932" s="25"/>
     </row>
     <row r="933" spans="7:7">
-      <c r="G933" s="31"/>
+      <c r="G933" s="25"/>
     </row>
     <row r="934" spans="7:7">
-      <c r="G934" s="31"/>
+      <c r="G934" s="25"/>
     </row>
     <row r="935" spans="7:7">
-      <c r="G935" s="31"/>
+      <c r="G935" s="25"/>
     </row>
     <row r="936" spans="7:7">
-      <c r="G936" s="31"/>
+      <c r="G936" s="25"/>
     </row>
     <row r="937" spans="7:7">
-      <c r="G937" s="31"/>
+      <c r="G937" s="25"/>
     </row>
     <row r="938" spans="7:7">
-      <c r="G938" s="31"/>
+      <c r="G938" s="25"/>
     </row>
     <row r="939" spans="7:7">
-      <c r="G939" s="31"/>
+      <c r="G939" s="25"/>
     </row>
     <row r="940" spans="7:7">
-      <c r="G940" s="31"/>
+      <c r="G940" s="25"/>
     </row>
     <row r="941" spans="7:7">
-      <c r="G941" s="31"/>
+      <c r="G941" s="25"/>
     </row>
     <row r="942" spans="7:7">
-      <c r="G942" s="31"/>
+      <c r="G942" s="25"/>
     </row>
     <row r="943" spans="7:7">
-      <c r="G943" s="31"/>
+      <c r="G943" s="25"/>
     </row>
     <row r="944" spans="7:7">
-      <c r="G944" s="31"/>
+      <c r="G944" s="25"/>
     </row>
     <row r="945" spans="7:7">
-      <c r="G945" s="31"/>
+      <c r="G945" s="25"/>
     </row>
     <row r="946" spans="7:7">
-      <c r="G946" s="31"/>
+      <c r="G946" s="25"/>
     </row>
     <row r="947" spans="7:7">
-      <c r="G947" s="31"/>
+      <c r="G947" s="25"/>
     </row>
     <row r="948" spans="7:7">
-      <c r="G948" s="31"/>
+      <c r="G948" s="25"/>
     </row>
     <row r="949" spans="7:7">
-      <c r="G949" s="31"/>
+      <c r="G949" s="25"/>
     </row>
     <row r="950" spans="7:7">
-      <c r="G950" s="31"/>
+      <c r="G950" s="25"/>
     </row>
     <row r="951" spans="7:7">
-      <c r="G951" s="31"/>
+      <c r="G951" s="25"/>
     </row>
     <row r="952" spans="7:7">
-      <c r="G952" s="31"/>
+      <c r="G952" s="25"/>
     </row>
     <row r="953" spans="7:7">
-      <c r="G953" s="31"/>
+      <c r="G953" s="25"/>
     </row>
     <row r="954" spans="7:7">
-      <c r="G954" s="31"/>
+      <c r="G954" s="25"/>
     </row>
     <row r="955" spans="7:7">
-      <c r="G955" s="31"/>
+      <c r="G955" s="25"/>
     </row>
     <row r="956" spans="7:7">
-      <c r="G956" s="31"/>
+      <c r="G956" s="25"/>
     </row>
     <row r="957" spans="7:7">
-      <c r="G957" s="31"/>
+      <c r="G957" s="25"/>
     </row>
     <row r="958" spans="7:7">
-      <c r="G958" s="31"/>
+      <c r="G958" s="25"/>
     </row>
     <row r="959" spans="7:7">
-      <c r="G959" s="31"/>
+      <c r="G959" s="25"/>
     </row>
     <row r="960" spans="7:7">
-      <c r="G960" s="31"/>
+      <c r="G960" s="25"/>
     </row>
     <row r="961" spans="7:7">
-      <c r="G961" s="31"/>
+      <c r="G961" s="25"/>
     </row>
     <row r="962" spans="7:7">
-      <c r="G962" s="31"/>
+      <c r="G962" s="25"/>
     </row>
     <row r="963" spans="7:7">
-      <c r="G963" s="31"/>
+      <c r="G963" s="25"/>
     </row>
     <row r="964" spans="7:7">
-      <c r="G964" s="31"/>
+      <c r="G964" s="25"/>
     </row>
     <row r="965" spans="7:7">
-      <c r="G965" s="31"/>
+      <c r="G965" s="25"/>
     </row>
     <row r="966" spans="7:7">
-      <c r="G966" s="31"/>
+      <c r="G966" s="25"/>
     </row>
     <row r="967" spans="7:7">
-      <c r="G967" s="31"/>
+      <c r="G967" s="25"/>
     </row>
     <row r="968" spans="7:7">
-      <c r="G968" s="31"/>
+      <c r="G968" s="25"/>
     </row>
     <row r="969" spans="7:7">
-      <c r="G969" s="31"/>
+      <c r="G969" s="25"/>
     </row>
     <row r="970" spans="7:7">
-      <c r="G970" s="31"/>
+      <c r="G970" s="25"/>
     </row>
     <row r="971" spans="7:7">
-      <c r="G971" s="31"/>
+      <c r="G971" s="25"/>
     </row>
     <row r="972" spans="7:7">
-      <c r="G972" s="31"/>
+      <c r="G972" s="25"/>
     </row>
     <row r="973" spans="7:7">
-      <c r="G973" s="31"/>
+      <c r="G973" s="25"/>
     </row>
     <row r="974" spans="7:7">
-      <c r="G974" s="31"/>
+      <c r="G974" s="25"/>
     </row>
     <row r="975" spans="7:7">
-      <c r="G975" s="31"/>
+      <c r="G975" s="25"/>
     </row>
     <row r="976" spans="7:7">
-      <c r="G976" s="31"/>
+      <c r="G976" s="25"/>
     </row>
     <row r="977" spans="7:7">
-      <c r="G977" s="31"/>
+      <c r="G977" s="25"/>
     </row>
     <row r="978" spans="7:7">
-      <c r="G978" s="31"/>
+      <c r="G978" s="25"/>
     </row>
     <row r="979" spans="7:7">
-      <c r="G979" s="31"/>
+      <c r="G979" s="25"/>
     </row>
     <row r="980" spans="7:7">
-      <c r="G980" s="31"/>
+      <c r="G980" s="25"/>
     </row>
     <row r="981" spans="7:7">
-      <c r="G981" s="31"/>
+      <c r="G981" s="25"/>
     </row>
     <row r="982" spans="7:7">
-      <c r="G982" s="31"/>
+      <c r="G982" s="25"/>
     </row>
     <row r="983" spans="7:7">
-      <c r="G983" s="31"/>
+      <c r="G983" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Week3/docs/ProductBacklog.xlsx
+++ b/Week3/docs/ProductBacklog.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FPT\SE kì 5\SWP391\SWP391-OnlineShop\Week3\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9216"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -117,8 +112,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,8 +229,152 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,7 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,37 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,13 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,8 +453,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -388,15 +707,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -468,39 +1045,70 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -522,7 +1130,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -824,3228 +1432,3227 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="55.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" customWidth="1"/>
-    <col min="6" max="6" width="18.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="55.7083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.2833333333333" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.2">
-      <c r="A5" s="29" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="19.2" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.2">
-      <c r="A7" s="31" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="31.2" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.8">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" ht="19.8" spans="1:8">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="85.05" customHeight="1">
-      <c r="A10" s="7">
+    <row r="10" ht="85" customHeight="1" spans="1:8">
+      <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A11" s="7">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" ht="48.75" customHeight="1" spans="1:8">
+      <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" ht="48.75" customHeight="1" spans="1:8">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:8">
+      <c r="A13" s="13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>16</v>
+      <c r="G13" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A12" s="7">
-        <v>3</v>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" ht="40" customHeight="1" spans="1:8">
+      <c r="A14" s="13">
+        <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>15</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>16</v>
+      <c r="G14" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1">
-      <c r="A13" s="7">
-        <v>4</v>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" ht="40" customHeight="1" spans="1:8">
+      <c r="A15" s="13">
+        <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
+      <c r="B15" s="14" t="s">
+        <v>28</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
+      <c r="C15" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
-        <v>24</v>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18" t="s">
+        <v>30</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A14" s="7">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="7">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.8">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="22"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" ht="20.55" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" ht="16.35" spans="1:8">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" s="18"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="C20" s="18"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="C21" s="18"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="C22" s="26"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="C23" s="26"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24" s="26"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="26"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="C26" s="27"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="C27" s="27"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28" s="27"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="27"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="27"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="C31" s="27"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="C32" s="27"/>
-      <c r="G32" s="25"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="24"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="24"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="24"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="32"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="32"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="32"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="32"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="33"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="33"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="33"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="33"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="33"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="33"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="33"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="25"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="25"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="25"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="25"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="25"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="25"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="25"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="25"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="25"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="25"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="25"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="25"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="25"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="25"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="25"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="25"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="25"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="25"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="25"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="25"/>
+      <c r="G52" s="31"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="25"/>
+      <c r="G53" s="31"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="25"/>
+      <c r="G54" s="31"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="25"/>
+      <c r="G55" s="31"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="25"/>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" spans="7:7">
-      <c r="G57" s="25"/>
+      <c r="G57" s="31"/>
     </row>
     <row r="58" spans="7:7">
-      <c r="G58" s="25"/>
+      <c r="G58" s="31"/>
     </row>
     <row r="59" spans="7:7">
-      <c r="G59" s="25"/>
+      <c r="G59" s="31"/>
     </row>
     <row r="60" spans="7:7">
-      <c r="G60" s="25"/>
+      <c r="G60" s="31"/>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="25"/>
+      <c r="G61" s="31"/>
     </row>
     <row r="62" spans="7:7">
-      <c r="G62" s="25"/>
+      <c r="G62" s="31"/>
     </row>
     <row r="63" spans="7:7">
-      <c r="G63" s="25"/>
+      <c r="G63" s="31"/>
     </row>
     <row r="64" spans="7:7">
-      <c r="G64" s="25"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="25"/>
+      <c r="G65" s="31"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="25"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="25"/>
+      <c r="G67" s="31"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="25"/>
+      <c r="G68" s="31"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="25"/>
+      <c r="G69" s="31"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="25"/>
+      <c r="G70" s="31"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="25"/>
+      <c r="G71" s="31"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="25"/>
+      <c r="G72" s="31"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="25"/>
+      <c r="G73" s="31"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="25"/>
+      <c r="G74" s="31"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="25"/>
+      <c r="G75" s="31"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="25"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="25"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="25"/>
+      <c r="G78" s="31"/>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="25"/>
+      <c r="G79" s="31"/>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="25"/>
+      <c r="G80" s="31"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="25"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="25"/>
+      <c r="G82" s="31"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="25"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="25"/>
+      <c r="G84" s="31"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="25"/>
+      <c r="G85" s="31"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="25"/>
+      <c r="G86" s="31"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="25"/>
+      <c r="G87" s="31"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="25"/>
+      <c r="G88" s="31"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="25"/>
+      <c r="G89" s="31"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="25"/>
+      <c r="G90" s="31"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="25"/>
+      <c r="G91" s="31"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="25"/>
+      <c r="G92" s="31"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="25"/>
+      <c r="G93" s="31"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="25"/>
+      <c r="G94" s="31"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="25"/>
+      <c r="G95" s="31"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="25"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="25"/>
+      <c r="G97" s="31"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="25"/>
+      <c r="G98" s="31"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="25"/>
+      <c r="G99" s="31"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="25"/>
+      <c r="G100" s="31"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="25"/>
+      <c r="G101" s="31"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="25"/>
+      <c r="G102" s="31"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="25"/>
+      <c r="G103" s="31"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="25"/>
+      <c r="G104" s="31"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="25"/>
+      <c r="G105" s="31"/>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="25"/>
+      <c r="G106" s="31"/>
     </row>
     <row r="107" spans="7:7">
-      <c r="G107" s="25"/>
+      <c r="G107" s="31"/>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="25"/>
+      <c r="G108" s="31"/>
     </row>
     <row r="109" spans="7:7">
-      <c r="G109" s="25"/>
+      <c r="G109" s="31"/>
     </row>
     <row r="110" spans="7:7">
-      <c r="G110" s="25"/>
+      <c r="G110" s="31"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="25"/>
+      <c r="G111" s="31"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="25"/>
+      <c r="G112" s="31"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="25"/>
+      <c r="G113" s="31"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="25"/>
+      <c r="G114" s="31"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="25"/>
+      <c r="G115" s="31"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="25"/>
+      <c r="G116" s="31"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="25"/>
+      <c r="G117" s="31"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="25"/>
+      <c r="G118" s="31"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="25"/>
+      <c r="G119" s="31"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="25"/>
+      <c r="G120" s="31"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="25"/>
+      <c r="G121" s="31"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="25"/>
+      <c r="G122" s="31"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="25"/>
+      <c r="G123" s="31"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="25"/>
+      <c r="G124" s="31"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="25"/>
+      <c r="G125" s="31"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="25"/>
+      <c r="G126" s="31"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="25"/>
+      <c r="G127" s="31"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="25"/>
+      <c r="G128" s="31"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="25"/>
+      <c r="G129" s="31"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="25"/>
+      <c r="G130" s="31"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="25"/>
+      <c r="G131" s="31"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="25"/>
+      <c r="G132" s="31"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="25"/>
+      <c r="G133" s="31"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="25"/>
+      <c r="G134" s="31"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="25"/>
+      <c r="G135" s="31"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="25"/>
+      <c r="G136" s="31"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="25"/>
+      <c r="G137" s="31"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="25"/>
+      <c r="G138" s="31"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="25"/>
+      <c r="G139" s="31"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="25"/>
+      <c r="G140" s="31"/>
     </row>
     <row r="141" spans="7:7">
-      <c r="G141" s="25"/>
+      <c r="G141" s="31"/>
     </row>
     <row r="142" spans="7:7">
-      <c r="G142" s="25"/>
+      <c r="G142" s="31"/>
     </row>
     <row r="143" spans="7:7">
-      <c r="G143" s="25"/>
+      <c r="G143" s="31"/>
     </row>
     <row r="144" spans="7:7">
-      <c r="G144" s="25"/>
+      <c r="G144" s="31"/>
     </row>
     <row r="145" spans="7:7">
-      <c r="G145" s="25"/>
+      <c r="G145" s="31"/>
     </row>
     <row r="146" spans="7:7">
-      <c r="G146" s="25"/>
+      <c r="G146" s="31"/>
     </row>
     <row r="147" spans="7:7">
-      <c r="G147" s="25"/>
+      <c r="G147" s="31"/>
     </row>
     <row r="148" spans="7:7">
-      <c r="G148" s="25"/>
+      <c r="G148" s="31"/>
     </row>
     <row r="149" spans="7:7">
-      <c r="G149" s="25"/>
+      <c r="G149" s="31"/>
     </row>
     <row r="150" spans="7:7">
-      <c r="G150" s="25"/>
+      <c r="G150" s="31"/>
     </row>
     <row r="151" spans="7:7">
-      <c r="G151" s="25"/>
+      <c r="G151" s="31"/>
     </row>
     <row r="152" spans="7:7">
-      <c r="G152" s="25"/>
+      <c r="G152" s="31"/>
     </row>
     <row r="153" spans="7:7">
-      <c r="G153" s="25"/>
+      <c r="G153" s="31"/>
     </row>
     <row r="154" spans="7:7">
-      <c r="G154" s="25"/>
+      <c r="G154" s="31"/>
     </row>
     <row r="155" spans="7:7">
-      <c r="G155" s="25"/>
+      <c r="G155" s="31"/>
     </row>
     <row r="156" spans="7:7">
-      <c r="G156" s="25"/>
+      <c r="G156" s="31"/>
     </row>
     <row r="157" spans="7:7">
-      <c r="G157" s="25"/>
+      <c r="G157" s="31"/>
     </row>
     <row r="158" spans="7:7">
-      <c r="G158" s="25"/>
+      <c r="G158" s="31"/>
     </row>
     <row r="159" spans="7:7">
-      <c r="G159" s="25"/>
+      <c r="G159" s="31"/>
     </row>
     <row r="160" spans="7:7">
-      <c r="G160" s="25"/>
+      <c r="G160" s="31"/>
     </row>
     <row r="161" spans="7:7">
-      <c r="G161" s="25"/>
+      <c r="G161" s="31"/>
     </row>
     <row r="162" spans="7:7">
-      <c r="G162" s="25"/>
+      <c r="G162" s="31"/>
     </row>
     <row r="163" spans="7:7">
-      <c r="G163" s="25"/>
+      <c r="G163" s="31"/>
     </row>
     <row r="164" spans="7:7">
-      <c r="G164" s="25"/>
+      <c r="G164" s="31"/>
     </row>
     <row r="165" spans="7:7">
-      <c r="G165" s="25"/>
+      <c r="G165" s="31"/>
     </row>
     <row r="166" spans="7:7">
-      <c r="G166" s="25"/>
+      <c r="G166" s="31"/>
     </row>
     <row r="167" spans="7:7">
-      <c r="G167" s="25"/>
+      <c r="G167" s="31"/>
     </row>
     <row r="168" spans="7:7">
-      <c r="G168" s="25"/>
+      <c r="G168" s="31"/>
     </row>
     <row r="169" spans="7:7">
-      <c r="G169" s="25"/>
+      <c r="G169" s="31"/>
     </row>
     <row r="170" spans="7:7">
-      <c r="G170" s="25"/>
+      <c r="G170" s="31"/>
     </row>
     <row r="171" spans="7:7">
-      <c r="G171" s="25"/>
+      <c r="G171" s="31"/>
     </row>
     <row r="172" spans="7:7">
-      <c r="G172" s="25"/>
+      <c r="G172" s="31"/>
     </row>
     <row r="173" spans="7:7">
-      <c r="G173" s="25"/>
+      <c r="G173" s="31"/>
     </row>
     <row r="174" spans="7:7">
-      <c r="G174" s="25"/>
+      <c r="G174" s="31"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="25"/>
+      <c r="G175" s="31"/>
     </row>
     <row r="176" spans="7:7">
-      <c r="G176" s="25"/>
+      <c r="G176" s="31"/>
     </row>
     <row r="177" spans="7:7">
-      <c r="G177" s="25"/>
+      <c r="G177" s="31"/>
     </row>
     <row r="178" spans="7:7">
-      <c r="G178" s="25"/>
+      <c r="G178" s="31"/>
     </row>
     <row r="179" spans="7:7">
-      <c r="G179" s="25"/>
+      <c r="G179" s="31"/>
     </row>
     <row r="180" spans="7:7">
-      <c r="G180" s="25"/>
+      <c r="G180" s="31"/>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="25"/>
+      <c r="G181" s="31"/>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="25"/>
+      <c r="G182" s="31"/>
     </row>
     <row r="183" spans="7:7">
-      <c r="G183" s="25"/>
+      <c r="G183" s="31"/>
     </row>
     <row r="184" spans="7:7">
-      <c r="G184" s="25"/>
+      <c r="G184" s="31"/>
     </row>
     <row r="185" spans="7:7">
-      <c r="G185" s="25"/>
+      <c r="G185" s="31"/>
     </row>
     <row r="186" spans="7:7">
-      <c r="G186" s="25"/>
+      <c r="G186" s="31"/>
     </row>
     <row r="187" spans="7:7">
-      <c r="G187" s="25"/>
+      <c r="G187" s="31"/>
     </row>
     <row r="188" spans="7:7">
-      <c r="G188" s="25"/>
+      <c r="G188" s="31"/>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" s="25"/>
+      <c r="G189" s="31"/>
     </row>
     <row r="190" spans="7:7">
-      <c r="G190" s="25"/>
+      <c r="G190" s="31"/>
     </row>
     <row r="191" spans="7:7">
-      <c r="G191" s="25"/>
+      <c r="G191" s="31"/>
     </row>
     <row r="192" spans="7:7">
-      <c r="G192" s="25"/>
+      <c r="G192" s="31"/>
     </row>
     <row r="193" spans="7:7">
-      <c r="G193" s="25"/>
+      <c r="G193" s="31"/>
     </row>
     <row r="194" spans="7:7">
-      <c r="G194" s="25"/>
+      <c r="G194" s="31"/>
     </row>
     <row r="195" spans="7:7">
-      <c r="G195" s="25"/>
+      <c r="G195" s="31"/>
     </row>
     <row r="196" spans="7:7">
-      <c r="G196" s="25"/>
+      <c r="G196" s="31"/>
     </row>
     <row r="197" spans="7:7">
-      <c r="G197" s="25"/>
+      <c r="G197" s="31"/>
     </row>
     <row r="198" spans="7:7">
-      <c r="G198" s="25"/>
+      <c r="G198" s="31"/>
     </row>
     <row r="199" spans="7:7">
-      <c r="G199" s="25"/>
+      <c r="G199" s="31"/>
     </row>
     <row r="200" spans="7:7">
-      <c r="G200" s="25"/>
+      <c r="G200" s="31"/>
     </row>
     <row r="201" spans="7:7">
-      <c r="G201" s="25"/>
+      <c r="G201" s="31"/>
     </row>
     <row r="202" spans="7:7">
-      <c r="G202" s="25"/>
+      <c r="G202" s="31"/>
     </row>
     <row r="203" spans="7:7">
-      <c r="G203" s="25"/>
+      <c r="G203" s="31"/>
     </row>
     <row r="204" spans="7:7">
-      <c r="G204" s="25"/>
+      <c r="G204" s="31"/>
     </row>
     <row r="205" spans="7:7">
-      <c r="G205" s="25"/>
+      <c r="G205" s="31"/>
     </row>
     <row r="206" spans="7:7">
-      <c r="G206" s="25"/>
+      <c r="G206" s="31"/>
     </row>
     <row r="207" spans="7:7">
-      <c r="G207" s="25"/>
+      <c r="G207" s="31"/>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="25"/>
+      <c r="G208" s="31"/>
     </row>
     <row r="209" spans="7:7">
-      <c r="G209" s="25"/>
+      <c r="G209" s="31"/>
     </row>
     <row r="210" spans="7:7">
-      <c r="G210" s="25"/>
+      <c r="G210" s="31"/>
     </row>
     <row r="211" spans="7:7">
-      <c r="G211" s="25"/>
+      <c r="G211" s="31"/>
     </row>
     <row r="212" spans="7:7">
-      <c r="G212" s="25"/>
+      <c r="G212" s="31"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="25"/>
+      <c r="G213" s="31"/>
     </row>
     <row r="214" spans="7:7">
-      <c r="G214" s="25"/>
+      <c r="G214" s="31"/>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="25"/>
+      <c r="G215" s="31"/>
     </row>
     <row r="216" spans="7:7">
-      <c r="G216" s="25"/>
+      <c r="G216" s="31"/>
     </row>
     <row r="217" spans="7:7">
-      <c r="G217" s="25"/>
+      <c r="G217" s="31"/>
     </row>
     <row r="218" spans="7:7">
-      <c r="G218" s="25"/>
+      <c r="G218" s="31"/>
     </row>
     <row r="219" spans="7:7">
-      <c r="G219" s="25"/>
+      <c r="G219" s="31"/>
     </row>
     <row r="220" spans="7:7">
-      <c r="G220" s="25"/>
+      <c r="G220" s="31"/>
     </row>
     <row r="221" spans="7:7">
-      <c r="G221" s="25"/>
+      <c r="G221" s="31"/>
     </row>
     <row r="222" spans="7:7">
-      <c r="G222" s="25"/>
+      <c r="G222" s="31"/>
     </row>
     <row r="223" spans="7:7">
-      <c r="G223" s="25"/>
+      <c r="G223" s="31"/>
     </row>
     <row r="224" spans="7:7">
-      <c r="G224" s="25"/>
+      <c r="G224" s="31"/>
     </row>
     <row r="225" spans="7:7">
-      <c r="G225" s="25"/>
+      <c r="G225" s="31"/>
     </row>
     <row r="226" spans="7:7">
-      <c r="G226" s="25"/>
+      <c r="G226" s="31"/>
     </row>
     <row r="227" spans="7:7">
-      <c r="G227" s="25"/>
+      <c r="G227" s="31"/>
     </row>
     <row r="228" spans="7:7">
-      <c r="G228" s="25"/>
+      <c r="G228" s="31"/>
     </row>
     <row r="229" spans="7:7">
-      <c r="G229" s="25"/>
+      <c r="G229" s="31"/>
     </row>
     <row r="230" spans="7:7">
-      <c r="G230" s="25"/>
+      <c r="G230" s="31"/>
     </row>
     <row r="231" spans="7:7">
-      <c r="G231" s="25"/>
+      <c r="G231" s="31"/>
     </row>
     <row r="232" spans="7:7">
-      <c r="G232" s="25"/>
+      <c r="G232" s="31"/>
     </row>
     <row r="233" spans="7:7">
-      <c r="G233" s="25"/>
+      <c r="G233" s="31"/>
     </row>
     <row r="234" spans="7:7">
-      <c r="G234" s="25"/>
+      <c r="G234" s="31"/>
     </row>
     <row r="235" spans="7:7">
-      <c r="G235" s="25"/>
+      <c r="G235" s="31"/>
     </row>
     <row r="236" spans="7:7">
-      <c r="G236" s="25"/>
+      <c r="G236" s="31"/>
     </row>
     <row r="237" spans="7:7">
-      <c r="G237" s="25"/>
+      <c r="G237" s="31"/>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="25"/>
+      <c r="G238" s="31"/>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="25"/>
+      <c r="G239" s="31"/>
     </row>
     <row r="240" spans="7:7">
-      <c r="G240" s="25"/>
+      <c r="G240" s="31"/>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="25"/>
+      <c r="G241" s="31"/>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="25"/>
+      <c r="G242" s="31"/>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="25"/>
+      <c r="G243" s="31"/>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="25"/>
+      <c r="G244" s="31"/>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="25"/>
+      <c r="G245" s="31"/>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="25"/>
+      <c r="G246" s="31"/>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="25"/>
+      <c r="G247" s="31"/>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="25"/>
+      <c r="G248" s="31"/>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="25"/>
+      <c r="G249" s="31"/>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="25"/>
+      <c r="G250" s="31"/>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="25"/>
+      <c r="G251" s="31"/>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="25"/>
+      <c r="G252" s="31"/>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="25"/>
+      <c r="G253" s="31"/>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="25"/>
+      <c r="G254" s="31"/>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="25"/>
+      <c r="G255" s="31"/>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="25"/>
+      <c r="G256" s="31"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="25"/>
+      <c r="G257" s="31"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="25"/>
+      <c r="G258" s="31"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="25"/>
+      <c r="G259" s="31"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="25"/>
+      <c r="G260" s="31"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="25"/>
+      <c r="G261" s="31"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="25"/>
+      <c r="G262" s="31"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="25"/>
+      <c r="G263" s="31"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="25"/>
+      <c r="G264" s="31"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="25"/>
+      <c r="G265" s="31"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="25"/>
+      <c r="G266" s="31"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="25"/>
+      <c r="G267" s="31"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="25"/>
+      <c r="G268" s="31"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="25"/>
+      <c r="G269" s="31"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="25"/>
+      <c r="G270" s="31"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="25"/>
+      <c r="G271" s="31"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="25"/>
+      <c r="G272" s="31"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="25"/>
+      <c r="G273" s="31"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="25"/>
+      <c r="G274" s="31"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="25"/>
+      <c r="G275" s="31"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="25"/>
+      <c r="G276" s="31"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="25"/>
+      <c r="G277" s="31"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="25"/>
+      <c r="G278" s="31"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="25"/>
+      <c r="G279" s="31"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="25"/>
+      <c r="G280" s="31"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="25"/>
+      <c r="G281" s="31"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="25"/>
+      <c r="G282" s="31"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="25"/>
+      <c r="G283" s="31"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="25"/>
+      <c r="G284" s="31"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="25"/>
+      <c r="G285" s="31"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="25"/>
+      <c r="G286" s="31"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="25"/>
+      <c r="G287" s="31"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="25"/>
+      <c r="G288" s="31"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="25"/>
+      <c r="G289" s="31"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="25"/>
+      <c r="G290" s="31"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="25"/>
+      <c r="G291" s="31"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="25"/>
+      <c r="G292" s="31"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="25"/>
+      <c r="G293" s="31"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="25"/>
+      <c r="G294" s="31"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="25"/>
+      <c r="G295" s="31"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="25"/>
+      <c r="G296" s="31"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="25"/>
+      <c r="G297" s="31"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="25"/>
+      <c r="G298" s="31"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="25"/>
+      <c r="G299" s="31"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="25"/>
+      <c r="G300" s="31"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="25"/>
+      <c r="G301" s="31"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="25"/>
+      <c r="G302" s="31"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="25"/>
+      <c r="G303" s="31"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="25"/>
+      <c r="G304" s="31"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="25"/>
+      <c r="G305" s="31"/>
     </row>
     <row r="306" spans="7:7">
-      <c r="G306" s="25"/>
+      <c r="G306" s="31"/>
     </row>
     <row r="307" spans="7:7">
-      <c r="G307" s="25"/>
+      <c r="G307" s="31"/>
     </row>
     <row r="308" spans="7:7">
-      <c r="G308" s="25"/>
+      <c r="G308" s="31"/>
     </row>
     <row r="309" spans="7:7">
-      <c r="G309" s="25"/>
+      <c r="G309" s="31"/>
     </row>
     <row r="310" spans="7:7">
-      <c r="G310" s="25"/>
+      <c r="G310" s="31"/>
     </row>
     <row r="311" spans="7:7">
-      <c r="G311" s="25"/>
+      <c r="G311" s="31"/>
     </row>
     <row r="312" spans="7:7">
-      <c r="G312" s="25"/>
+      <c r="G312" s="31"/>
     </row>
     <row r="313" spans="7:7">
-      <c r="G313" s="25"/>
+      <c r="G313" s="31"/>
     </row>
     <row r="314" spans="7:7">
-      <c r="G314" s="25"/>
+      <c r="G314" s="31"/>
     </row>
     <row r="315" spans="7:7">
-      <c r="G315" s="25"/>
+      <c r="G315" s="31"/>
     </row>
     <row r="316" spans="7:7">
-      <c r="G316" s="25"/>
+      <c r="G316" s="31"/>
     </row>
     <row r="317" spans="7:7">
-      <c r="G317" s="25"/>
+      <c r="G317" s="31"/>
     </row>
     <row r="318" spans="7:7">
-      <c r="G318" s="25"/>
+      <c r="G318" s="31"/>
     </row>
     <row r="319" spans="7:7">
-      <c r="G319" s="25"/>
+      <c r="G319" s="31"/>
     </row>
     <row r="320" spans="7:7">
-      <c r="G320" s="25"/>
+      <c r="G320" s="31"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="25"/>
+      <c r="G321" s="31"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="25"/>
+      <c r="G322" s="31"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="25"/>
+      <c r="G323" s="31"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="25"/>
+      <c r="G324" s="31"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="25"/>
+      <c r="G325" s="31"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="25"/>
+      <c r="G326" s="31"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="25"/>
+      <c r="G327" s="31"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="25"/>
+      <c r="G328" s="31"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="25"/>
+      <c r="G329" s="31"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="25"/>
+      <c r="G330" s="31"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="25"/>
+      <c r="G331" s="31"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="25"/>
+      <c r="G332" s="31"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="25"/>
+      <c r="G333" s="31"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="25"/>
+      <c r="G334" s="31"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="25"/>
+      <c r="G335" s="31"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="25"/>
+      <c r="G336" s="31"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="25"/>
+      <c r="G337" s="31"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="25"/>
+      <c r="G338" s="31"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="25"/>
+      <c r="G339" s="31"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="25"/>
+      <c r="G340" s="31"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="25"/>
+      <c r="G341" s="31"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="25"/>
+      <c r="G342" s="31"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="25"/>
+      <c r="G343" s="31"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="25"/>
+      <c r="G344" s="31"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="25"/>
+      <c r="G345" s="31"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="25"/>
+      <c r="G346" s="31"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="25"/>
+      <c r="G347" s="31"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="25"/>
+      <c r="G348" s="31"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="25"/>
+      <c r="G349" s="31"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="25"/>
+      <c r="G350" s="31"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="25"/>
+      <c r="G351" s="31"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="25"/>
+      <c r="G352" s="31"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="25"/>
+      <c r="G353" s="31"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="25"/>
+      <c r="G354" s="31"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="25"/>
+      <c r="G355" s="31"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="25"/>
+      <c r="G356" s="31"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="25"/>
+      <c r="G357" s="31"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="25"/>
+      <c r="G358" s="31"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="25"/>
+      <c r="G359" s="31"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="25"/>
+      <c r="G360" s="31"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="25"/>
+      <c r="G361" s="31"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="25"/>
+      <c r="G362" s="31"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="25"/>
+      <c r="G363" s="31"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="25"/>
+      <c r="G364" s="31"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="25"/>
+      <c r="G365" s="31"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="25"/>
+      <c r="G366" s="31"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="25"/>
+      <c r="G367" s="31"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="25"/>
+      <c r="G368" s="31"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="25"/>
+      <c r="G369" s="31"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="25"/>
+      <c r="G370" s="31"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="25"/>
+      <c r="G371" s="31"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="25"/>
+      <c r="G372" s="31"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="25"/>
+      <c r="G373" s="31"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="25"/>
+      <c r="G374" s="31"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="25"/>
+      <c r="G375" s="31"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="25"/>
+      <c r="G376" s="31"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="25"/>
+      <c r="G377" s="31"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="25"/>
+      <c r="G378" s="31"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="25"/>
+      <c r="G379" s="31"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="25"/>
+      <c r="G380" s="31"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="25"/>
+      <c r="G381" s="31"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="25"/>
+      <c r="G382" s="31"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="25"/>
+      <c r="G383" s="31"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="25"/>
+      <c r="G384" s="31"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="25"/>
+      <c r="G385" s="31"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="25"/>
+      <c r="G386" s="31"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="25"/>
+      <c r="G387" s="31"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="25"/>
+      <c r="G388" s="31"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="25"/>
+      <c r="G389" s="31"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="25"/>
+      <c r="G390" s="31"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="25"/>
+      <c r="G391" s="31"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="25"/>
+      <c r="G392" s="31"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="25"/>
+      <c r="G393" s="31"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="25"/>
+      <c r="G394" s="31"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="25"/>
+      <c r="G395" s="31"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="25"/>
+      <c r="G396" s="31"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="25"/>
+      <c r="G397" s="31"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="25"/>
+      <c r="G398" s="31"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="25"/>
+      <c r="G399" s="31"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="25"/>
+      <c r="G400" s="31"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="25"/>
+      <c r="G401" s="31"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="25"/>
+      <c r="G402" s="31"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="25"/>
+      <c r="G403" s="31"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="25"/>
+      <c r="G404" s="31"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="25"/>
+      <c r="G405" s="31"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="25"/>
+      <c r="G406" s="31"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="25"/>
+      <c r="G407" s="31"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="25"/>
+      <c r="G408" s="31"/>
     </row>
     <row r="409" spans="7:7">
-      <c r="G409" s="25"/>
+      <c r="G409" s="31"/>
     </row>
     <row r="410" spans="7:7">
-      <c r="G410" s="25"/>
+      <c r="G410" s="31"/>
     </row>
     <row r="411" spans="7:7">
-      <c r="G411" s="25"/>
+      <c r="G411" s="31"/>
     </row>
     <row r="412" spans="7:7">
-      <c r="G412" s="25"/>
+      <c r="G412" s="31"/>
     </row>
     <row r="413" spans="7:7">
-      <c r="G413" s="25"/>
+      <c r="G413" s="31"/>
     </row>
     <row r="414" spans="7:7">
-      <c r="G414" s="25"/>
+      <c r="G414" s="31"/>
     </row>
     <row r="415" spans="7:7">
-      <c r="G415" s="25"/>
+      <c r="G415" s="31"/>
     </row>
     <row r="416" spans="7:7">
-      <c r="G416" s="25"/>
+      <c r="G416" s="31"/>
     </row>
     <row r="417" spans="7:7">
-      <c r="G417" s="25"/>
+      <c r="G417" s="31"/>
     </row>
     <row r="418" spans="7:7">
-      <c r="G418" s="25"/>
+      <c r="G418" s="31"/>
     </row>
     <row r="419" spans="7:7">
-      <c r="G419" s="25"/>
+      <c r="G419" s="31"/>
     </row>
     <row r="420" spans="7:7">
-      <c r="G420" s="25"/>
+      <c r="G420" s="31"/>
     </row>
     <row r="421" spans="7:7">
-      <c r="G421" s="25"/>
+      <c r="G421" s="31"/>
     </row>
     <row r="422" spans="7:7">
-      <c r="G422" s="25"/>
+      <c r="G422" s="31"/>
     </row>
     <row r="423" spans="7:7">
-      <c r="G423" s="25"/>
+      <c r="G423" s="31"/>
     </row>
     <row r="424" spans="7:7">
-      <c r="G424" s="25"/>
+      <c r="G424" s="31"/>
     </row>
     <row r="425" spans="7:7">
-      <c r="G425" s="25"/>
+      <c r="G425" s="31"/>
     </row>
     <row r="426" spans="7:7">
-      <c r="G426" s="25"/>
+      <c r="G426" s="31"/>
     </row>
     <row r="427" spans="7:7">
-      <c r="G427" s="25"/>
+      <c r="G427" s="31"/>
     </row>
     <row r="428" spans="7:7">
-      <c r="G428" s="25"/>
+      <c r="G428" s="31"/>
     </row>
     <row r="429" spans="7:7">
-      <c r="G429" s="25"/>
+      <c r="G429" s="31"/>
     </row>
     <row r="430" spans="7:7">
-      <c r="G430" s="25"/>
+      <c r="G430" s="31"/>
     </row>
     <row r="431" spans="7:7">
-      <c r="G431" s="25"/>
+      <c r="G431" s="31"/>
     </row>
     <row r="432" spans="7:7">
-      <c r="G432" s="25"/>
+      <c r="G432" s="31"/>
     </row>
     <row r="433" spans="7:7">
-      <c r="G433" s="25"/>
+      <c r="G433" s="31"/>
     </row>
     <row r="434" spans="7:7">
-      <c r="G434" s="25"/>
+      <c r="G434" s="31"/>
     </row>
     <row r="435" spans="7:7">
-      <c r="G435" s="25"/>
+      <c r="G435" s="31"/>
     </row>
     <row r="436" spans="7:7">
-      <c r="G436" s="25"/>
+      <c r="G436" s="31"/>
     </row>
     <row r="437" spans="7:7">
-      <c r="G437" s="25"/>
+      <c r="G437" s="31"/>
     </row>
     <row r="438" spans="7:7">
-      <c r="G438" s="25"/>
+      <c r="G438" s="31"/>
     </row>
     <row r="439" spans="7:7">
-      <c r="G439" s="25"/>
+      <c r="G439" s="31"/>
     </row>
     <row r="440" spans="7:7">
-      <c r="G440" s="25"/>
+      <c r="G440" s="31"/>
     </row>
     <row r="441" spans="7:7">
-      <c r="G441" s="25"/>
+      <c r="G441" s="31"/>
     </row>
     <row r="442" spans="7:7">
-      <c r="G442" s="25"/>
+      <c r="G442" s="31"/>
     </row>
     <row r="443" spans="7:7">
-      <c r="G443" s="25"/>
+      <c r="G443" s="31"/>
     </row>
     <row r="444" spans="7:7">
-      <c r="G444" s="25"/>
+      <c r="G444" s="31"/>
     </row>
     <row r="445" spans="7:7">
-      <c r="G445" s="25"/>
+      <c r="G445" s="31"/>
     </row>
     <row r="446" spans="7:7">
-      <c r="G446" s="25"/>
+      <c r="G446" s="31"/>
     </row>
     <row r="447" spans="7:7">
-      <c r="G447" s="25"/>
+      <c r="G447" s="31"/>
     </row>
     <row r="448" spans="7:7">
-      <c r="G448" s="25"/>
+      <c r="G448" s="31"/>
     </row>
     <row r="449" spans="7:7">
-      <c r="G449" s="25"/>
+      <c r="G449" s="31"/>
     </row>
     <row r="450" spans="7:7">
-      <c r="G450" s="25"/>
+      <c r="G450" s="31"/>
     </row>
     <row r="451" spans="7:7">
-      <c r="G451" s="25"/>
+      <c r="G451" s="31"/>
     </row>
     <row r="452" spans="7:7">
-      <c r="G452" s="25"/>
+      <c r="G452" s="31"/>
     </row>
     <row r="453" spans="7:7">
-      <c r="G453" s="25"/>
+      <c r="G453" s="31"/>
     </row>
     <row r="454" spans="7:7">
-      <c r="G454" s="25"/>
+      <c r="G454" s="31"/>
     </row>
     <row r="455" spans="7:7">
-      <c r="G455" s="25"/>
+      <c r="G455" s="31"/>
     </row>
     <row r="456" spans="7:7">
-      <c r="G456" s="25"/>
+      <c r="G456" s="31"/>
     </row>
     <row r="457" spans="7:7">
-      <c r="G457" s="25"/>
+      <c r="G457" s="31"/>
     </row>
     <row r="458" spans="7:7">
-      <c r="G458" s="25"/>
+      <c r="G458" s="31"/>
     </row>
     <row r="459" spans="7:7">
-      <c r="G459" s="25"/>
+      <c r="G459" s="31"/>
     </row>
     <row r="460" spans="7:7">
-      <c r="G460" s="25"/>
+      <c r="G460" s="31"/>
     </row>
     <row r="461" spans="7:7">
-      <c r="G461" s="25"/>
+      <c r="G461" s="31"/>
     </row>
     <row r="462" spans="7:7">
-      <c r="G462" s="25"/>
+      <c r="G462" s="31"/>
     </row>
     <row r="463" spans="7:7">
-      <c r="G463" s="25"/>
+      <c r="G463" s="31"/>
     </row>
     <row r="464" spans="7:7">
-      <c r="G464" s="25"/>
+      <c r="G464" s="31"/>
     </row>
     <row r="465" spans="7:7">
-      <c r="G465" s="25"/>
+      <c r="G465" s="31"/>
     </row>
     <row r="466" spans="7:7">
-      <c r="G466" s="25"/>
+      <c r="G466" s="31"/>
     </row>
     <row r="467" spans="7:7">
-      <c r="G467" s="25"/>
+      <c r="G467" s="31"/>
     </row>
     <row r="468" spans="7:7">
-      <c r="G468" s="25"/>
+      <c r="G468" s="31"/>
     </row>
     <row r="469" spans="7:7">
-      <c r="G469" s="25"/>
+      <c r="G469" s="31"/>
     </row>
     <row r="470" spans="7:7">
-      <c r="G470" s="25"/>
+      <c r="G470" s="31"/>
     </row>
     <row r="471" spans="7:7">
-      <c r="G471" s="25"/>
+      <c r="G471" s="31"/>
     </row>
     <row r="472" spans="7:7">
-      <c r="G472" s="25"/>
+      <c r="G472" s="31"/>
     </row>
     <row r="473" spans="7:7">
-      <c r="G473" s="25"/>
+      <c r="G473" s="31"/>
     </row>
     <row r="474" spans="7:7">
-      <c r="G474" s="25"/>
+      <c r="G474" s="31"/>
     </row>
     <row r="475" spans="7:7">
-      <c r="G475" s="25"/>
+      <c r="G475" s="31"/>
     </row>
     <row r="476" spans="7:7">
-      <c r="G476" s="25"/>
+      <c r="G476" s="31"/>
     </row>
     <row r="477" spans="7:7">
-      <c r="G477" s="25"/>
+      <c r="G477" s="31"/>
     </row>
     <row r="478" spans="7:7">
-      <c r="G478" s="25"/>
+      <c r="G478" s="31"/>
     </row>
     <row r="479" spans="7:7">
-      <c r="G479" s="25"/>
+      <c r="G479" s="31"/>
     </row>
     <row r="480" spans="7:7">
-      <c r="G480" s="25"/>
+      <c r="G480" s="31"/>
     </row>
     <row r="481" spans="7:7">
-      <c r="G481" s="25"/>
+      <c r="G481" s="31"/>
     </row>
     <row r="482" spans="7:7">
-      <c r="G482" s="25"/>
+      <c r="G482" s="31"/>
     </row>
     <row r="483" spans="7:7">
-      <c r="G483" s="25"/>
+      <c r="G483" s="31"/>
     </row>
     <row r="484" spans="7:7">
-      <c r="G484" s="25"/>
+      <c r="G484" s="31"/>
     </row>
     <row r="485" spans="7:7">
-      <c r="G485" s="25"/>
+      <c r="G485" s="31"/>
     </row>
     <row r="486" spans="7:7">
-      <c r="G486" s="25"/>
+      <c r="G486" s="31"/>
     </row>
     <row r="487" spans="7:7">
-      <c r="G487" s="25"/>
+      <c r="G487" s="31"/>
     </row>
     <row r="488" spans="7:7">
-      <c r="G488" s="25"/>
+      <c r="G488" s="31"/>
     </row>
     <row r="489" spans="7:7">
-      <c r="G489" s="25"/>
+      <c r="G489" s="31"/>
     </row>
     <row r="490" spans="7:7">
-      <c r="G490" s="25"/>
+      <c r="G490" s="31"/>
     </row>
     <row r="491" spans="7:7">
-      <c r="G491" s="25"/>
+      <c r="G491" s="31"/>
     </row>
     <row r="492" spans="7:7">
-      <c r="G492" s="25"/>
+      <c r="G492" s="31"/>
     </row>
     <row r="493" spans="7:7">
-      <c r="G493" s="25"/>
+      <c r="G493" s="31"/>
     </row>
     <row r="494" spans="7:7">
-      <c r="G494" s="25"/>
+      <c r="G494" s="31"/>
     </row>
     <row r="495" spans="7:7">
-      <c r="G495" s="25"/>
+      <c r="G495" s="31"/>
     </row>
     <row r="496" spans="7:7">
-      <c r="G496" s="25"/>
+      <c r="G496" s="31"/>
     </row>
     <row r="497" spans="7:7">
-      <c r="G497" s="25"/>
+      <c r="G497" s="31"/>
     </row>
     <row r="498" spans="7:7">
-      <c r="G498" s="25"/>
+      <c r="G498" s="31"/>
     </row>
     <row r="499" spans="7:7">
-      <c r="G499" s="25"/>
+      <c r="G499" s="31"/>
     </row>
     <row r="500" spans="7:7">
-      <c r="G500" s="25"/>
+      <c r="G500" s="31"/>
     </row>
     <row r="501" spans="7:7">
-      <c r="G501" s="25"/>
+      <c r="G501" s="31"/>
     </row>
     <row r="502" spans="7:7">
-      <c r="G502" s="25"/>
+      <c r="G502" s="31"/>
     </row>
     <row r="503" spans="7:7">
-      <c r="G503" s="25"/>
+      <c r="G503" s="31"/>
     </row>
     <row r="504" spans="7:7">
-      <c r="G504" s="25"/>
+      <c r="G504" s="31"/>
     </row>
     <row r="505" spans="7:7">
-      <c r="G505" s="25"/>
+      <c r="G505" s="31"/>
     </row>
     <row r="506" spans="7:7">
-      <c r="G506" s="25"/>
+      <c r="G506" s="31"/>
     </row>
     <row r="507" spans="7:7">
-      <c r="G507" s="25"/>
+      <c r="G507" s="31"/>
     </row>
     <row r="508" spans="7:7">
-      <c r="G508" s="25"/>
+      <c r="G508" s="31"/>
     </row>
     <row r="509" spans="7:7">
-      <c r="G509" s="25"/>
+      <c r="G509" s="31"/>
     </row>
     <row r="510" spans="7:7">
-      <c r="G510" s="25"/>
+      <c r="G510" s="31"/>
     </row>
     <row r="511" spans="7:7">
-      <c r="G511" s="25"/>
+      <c r="G511" s="31"/>
     </row>
     <row r="512" spans="7:7">
-      <c r="G512" s="25"/>
+      <c r="G512" s="31"/>
     </row>
     <row r="513" spans="7:7">
-      <c r="G513" s="25"/>
+      <c r="G513" s="31"/>
     </row>
     <row r="514" spans="7:7">
-      <c r="G514" s="25"/>
+      <c r="G514" s="31"/>
     </row>
     <row r="515" spans="7:7">
-      <c r="G515" s="25"/>
+      <c r="G515" s="31"/>
     </row>
     <row r="516" spans="7:7">
-      <c r="G516" s="25"/>
+      <c r="G516" s="31"/>
     </row>
     <row r="517" spans="7:7">
-      <c r="G517" s="25"/>
+      <c r="G517" s="31"/>
     </row>
     <row r="518" spans="7:7">
-      <c r="G518" s="25"/>
+      <c r="G518" s="31"/>
     </row>
     <row r="519" spans="7:7">
-      <c r="G519" s="25"/>
+      <c r="G519" s="31"/>
     </row>
     <row r="520" spans="7:7">
-      <c r="G520" s="25"/>
+      <c r="G520" s="31"/>
     </row>
     <row r="521" spans="7:7">
-      <c r="G521" s="25"/>
+      <c r="G521" s="31"/>
     </row>
     <row r="522" spans="7:7">
-      <c r="G522" s="25"/>
+      <c r="G522" s="31"/>
     </row>
     <row r="523" spans="7:7">
-      <c r="G523" s="25"/>
+      <c r="G523" s="31"/>
     </row>
     <row r="524" spans="7:7">
-      <c r="G524" s="25"/>
+      <c r="G524" s="31"/>
     </row>
     <row r="525" spans="7:7">
-      <c r="G525" s="25"/>
+      <c r="G525" s="31"/>
     </row>
     <row r="526" spans="7:7">
-      <c r="G526" s="25"/>
+      <c r="G526" s="31"/>
     </row>
     <row r="527" spans="7:7">
-      <c r="G527" s="25"/>
+      <c r="G527" s="31"/>
     </row>
     <row r="528" spans="7:7">
-      <c r="G528" s="25"/>
+      <c r="G528" s="31"/>
     </row>
     <row r="529" spans="7:7">
-      <c r="G529" s="25"/>
+      <c r="G529" s="31"/>
     </row>
     <row r="530" spans="7:7">
-      <c r="G530" s="25"/>
+      <c r="G530" s="31"/>
     </row>
     <row r="531" spans="7:7">
-      <c r="G531" s="25"/>
+      <c r="G531" s="31"/>
     </row>
     <row r="532" spans="7:7">
-      <c r="G532" s="25"/>
+      <c r="G532" s="31"/>
     </row>
     <row r="533" spans="7:7">
-      <c r="G533" s="25"/>
+      <c r="G533" s="31"/>
     </row>
     <row r="534" spans="7:7">
-      <c r="G534" s="25"/>
+      <c r="G534" s="31"/>
     </row>
     <row r="535" spans="7:7">
-      <c r="G535" s="25"/>
+      <c r="G535" s="31"/>
     </row>
     <row r="536" spans="7:7">
-      <c r="G536" s="25"/>
+      <c r="G536" s="31"/>
     </row>
     <row r="537" spans="7:7">
-      <c r="G537" s="25"/>
+      <c r="G537" s="31"/>
     </row>
     <row r="538" spans="7:7">
-      <c r="G538" s="25"/>
+      <c r="G538" s="31"/>
     </row>
     <row r="539" spans="7:7">
-      <c r="G539" s="25"/>
+      <c r="G539" s="31"/>
     </row>
     <row r="540" spans="7:7">
-      <c r="G540" s="25"/>
+      <c r="G540" s="31"/>
     </row>
     <row r="541" spans="7:7">
-      <c r="G541" s="25"/>
+      <c r="G541" s="31"/>
     </row>
     <row r="542" spans="7:7">
-      <c r="G542" s="25"/>
+      <c r="G542" s="31"/>
     </row>
     <row r="543" spans="7:7">
-      <c r="G543" s="25"/>
+      <c r="G543" s="31"/>
     </row>
     <row r="544" spans="7:7">
-      <c r="G544" s="25"/>
+      <c r="G544" s="31"/>
     </row>
     <row r="545" spans="7:7">
-      <c r="G545" s="25"/>
+      <c r="G545" s="31"/>
     </row>
     <row r="546" spans="7:7">
-      <c r="G546" s="25"/>
+      <c r="G546" s="31"/>
     </row>
     <row r="547" spans="7:7">
-      <c r="G547" s="25"/>
+      <c r="G547" s="31"/>
     </row>
     <row r="548" spans="7:7">
-      <c r="G548" s="25"/>
+      <c r="G548" s="31"/>
     </row>
     <row r="549" spans="7:7">
-      <c r="G549" s="25"/>
+      <c r="G549" s="31"/>
     </row>
     <row r="550" spans="7:7">
-      <c r="G550" s="25"/>
+      <c r="G550" s="31"/>
     </row>
     <row r="551" spans="7:7">
-      <c r="G551" s="25"/>
+      <c r="G551" s="31"/>
     </row>
     <row r="552" spans="7:7">
-      <c r="G552" s="25"/>
+      <c r="G552" s="31"/>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="25"/>
+      <c r="G553" s="31"/>
     </row>
     <row r="554" spans="7:7">
-      <c r="G554" s="25"/>
+      <c r="G554" s="31"/>
     </row>
     <row r="555" spans="7:7">
-      <c r="G555" s="25"/>
+      <c r="G555" s="31"/>
     </row>
     <row r="556" spans="7:7">
-      <c r="G556" s="25"/>
+      <c r="G556" s="31"/>
     </row>
     <row r="557" spans="7:7">
-      <c r="G557" s="25"/>
+      <c r="G557" s="31"/>
     </row>
     <row r="558" spans="7:7">
-      <c r="G558" s="25"/>
+      <c r="G558" s="31"/>
     </row>
     <row r="559" spans="7:7">
-      <c r="G559" s="25"/>
+      <c r="G559" s="31"/>
     </row>
     <row r="560" spans="7:7">
-      <c r="G560" s="25"/>
+      <c r="G560" s="31"/>
     </row>
     <row r="561" spans="7:7">
-      <c r="G561" s="25"/>
+      <c r="G561" s="31"/>
     </row>
     <row r="562" spans="7:7">
-      <c r="G562" s="25"/>
+      <c r="G562" s="31"/>
     </row>
     <row r="563" spans="7:7">
-      <c r="G563" s="25"/>
+      <c r="G563" s="31"/>
     </row>
     <row r="564" spans="7:7">
-      <c r="G564" s="25"/>
+      <c r="G564" s="31"/>
     </row>
     <row r="565" spans="7:7">
-      <c r="G565" s="25"/>
+      <c r="G565" s="31"/>
     </row>
     <row r="566" spans="7:7">
-      <c r="G566" s="25"/>
+      <c r="G566" s="31"/>
     </row>
     <row r="567" spans="7:7">
-      <c r="G567" s="25"/>
+      <c r="G567" s="31"/>
     </row>
     <row r="568" spans="7:7">
-      <c r="G568" s="25"/>
+      <c r="G568" s="31"/>
     </row>
     <row r="569" spans="7:7">
-      <c r="G569" s="25"/>
+      <c r="G569" s="31"/>
     </row>
     <row r="570" spans="7:7">
-      <c r="G570" s="25"/>
+      <c r="G570" s="31"/>
     </row>
     <row r="571" spans="7:7">
-      <c r="G571" s="25"/>
+      <c r="G571" s="31"/>
     </row>
     <row r="572" spans="7:7">
-      <c r="G572" s="25"/>
+      <c r="G572" s="31"/>
     </row>
     <row r="573" spans="7:7">
-      <c r="G573" s="25"/>
+      <c r="G573" s="31"/>
     </row>
     <row r="574" spans="7:7">
-      <c r="G574" s="25"/>
+      <c r="G574" s="31"/>
     </row>
     <row r="575" spans="7:7">
-      <c r="G575" s="25"/>
+      <c r="G575" s="31"/>
     </row>
     <row r="576" spans="7:7">
-      <c r="G576" s="25"/>
+      <c r="G576" s="31"/>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="25"/>
+      <c r="G577" s="31"/>
     </row>
     <row r="578" spans="7:7">
-      <c r="G578" s="25"/>
+      <c r="G578" s="31"/>
     </row>
     <row r="579" spans="7:7">
-      <c r="G579" s="25"/>
+      <c r="G579" s="31"/>
     </row>
     <row r="580" spans="7:7">
-      <c r="G580" s="25"/>
+      <c r="G580" s="31"/>
     </row>
     <row r="581" spans="7:7">
-      <c r="G581" s="25"/>
+      <c r="G581" s="31"/>
     </row>
     <row r="582" spans="7:7">
-      <c r="G582" s="25"/>
+      <c r="G582" s="31"/>
     </row>
     <row r="583" spans="7:7">
-      <c r="G583" s="25"/>
+      <c r="G583" s="31"/>
     </row>
     <row r="584" spans="7:7">
-      <c r="G584" s="25"/>
+      <c r="G584" s="31"/>
     </row>
     <row r="585" spans="7:7">
-      <c r="G585" s="25"/>
+      <c r="G585" s="31"/>
     </row>
     <row r="586" spans="7:7">
-      <c r="G586" s="25"/>
+      <c r="G586" s="31"/>
     </row>
     <row r="587" spans="7:7">
-      <c r="G587" s="25"/>
+      <c r="G587" s="31"/>
     </row>
     <row r="588" spans="7:7">
-      <c r="G588" s="25"/>
+      <c r="G588" s="31"/>
     </row>
     <row r="589" spans="7:7">
-      <c r="G589" s="25"/>
+      <c r="G589" s="31"/>
     </row>
     <row r="590" spans="7:7">
-      <c r="G590" s="25"/>
+      <c r="G590" s="31"/>
     </row>
     <row r="591" spans="7:7">
-      <c r="G591" s="25"/>
+      <c r="G591" s="31"/>
     </row>
     <row r="592" spans="7:7">
-      <c r="G592" s="25"/>
+      <c r="G592" s="31"/>
     </row>
     <row r="593" spans="7:7">
-      <c r="G593" s="25"/>
+      <c r="G593" s="31"/>
     </row>
     <row r="594" spans="7:7">
-      <c r="G594" s="25"/>
+      <c r="G594" s="31"/>
     </row>
     <row r="595" spans="7:7">
-      <c r="G595" s="25"/>
+      <c r="G595" s="31"/>
     </row>
     <row r="596" spans="7:7">
-      <c r="G596" s="25"/>
+      <c r="G596" s="31"/>
     </row>
     <row r="597" spans="7:7">
-      <c r="G597" s="25"/>
+      <c r="G597" s="31"/>
     </row>
     <row r="598" spans="7:7">
-      <c r="G598" s="25"/>
+      <c r="G598" s="31"/>
     </row>
     <row r="599" spans="7:7">
-      <c r="G599" s="25"/>
+      <c r="G599" s="31"/>
     </row>
     <row r="600" spans="7:7">
-      <c r="G600" s="25"/>
+      <c r="G600" s="31"/>
     </row>
     <row r="601" spans="7:7">
-      <c r="G601" s="25"/>
+      <c r="G601" s="31"/>
     </row>
     <row r="602" spans="7:7">
-      <c r="G602" s="25"/>
+      <c r="G602" s="31"/>
     </row>
     <row r="603" spans="7:7">
-      <c r="G603" s="25"/>
+      <c r="G603" s="31"/>
     </row>
     <row r="604" spans="7:7">
-      <c r="G604" s="25"/>
+      <c r="G604" s="31"/>
     </row>
     <row r="605" spans="7:7">
-      <c r="G605" s="25"/>
+      <c r="G605" s="31"/>
     </row>
     <row r="606" spans="7:7">
-      <c r="G606" s="25"/>
+      <c r="G606" s="31"/>
     </row>
     <row r="607" spans="7:7">
-      <c r="G607" s="25"/>
+      <c r="G607" s="31"/>
     </row>
     <row r="608" spans="7:7">
-      <c r="G608" s="25"/>
+      <c r="G608" s="31"/>
     </row>
     <row r="609" spans="7:7">
-      <c r="G609" s="25"/>
+      <c r="G609" s="31"/>
     </row>
     <row r="610" spans="7:7">
-      <c r="G610" s="25"/>
+      <c r="G610" s="31"/>
     </row>
     <row r="611" spans="7:7">
-      <c r="G611" s="25"/>
+      <c r="G611" s="31"/>
     </row>
     <row r="612" spans="7:7">
-      <c r="G612" s="25"/>
+      <c r="G612" s="31"/>
     </row>
     <row r="613" spans="7:7">
-      <c r="G613" s="25"/>
+      <c r="G613" s="31"/>
     </row>
     <row r="614" spans="7:7">
-      <c r="G614" s="25"/>
+      <c r="G614" s="31"/>
     </row>
     <row r="615" spans="7:7">
-      <c r="G615" s="25"/>
+      <c r="G615" s="31"/>
     </row>
     <row r="616" spans="7:7">
-      <c r="G616" s="25"/>
+      <c r="G616" s="31"/>
     </row>
     <row r="617" spans="7:7">
-      <c r="G617" s="25"/>
+      <c r="G617" s="31"/>
     </row>
     <row r="618" spans="7:7">
-      <c r="G618" s="25"/>
+      <c r="G618" s="31"/>
     </row>
     <row r="619" spans="7:7">
-      <c r="G619" s="25"/>
+      <c r="G619" s="31"/>
     </row>
     <row r="620" spans="7:7">
-      <c r="G620" s="25"/>
+      <c r="G620" s="31"/>
     </row>
     <row r="621" spans="7:7">
-      <c r="G621" s="25"/>
+      <c r="G621" s="31"/>
     </row>
     <row r="622" spans="7:7">
-      <c r="G622" s="25"/>
+      <c r="G622" s="31"/>
     </row>
     <row r="623" spans="7:7">
-      <c r="G623" s="25"/>
+      <c r="G623" s="31"/>
     </row>
     <row r="624" spans="7:7">
-      <c r="G624" s="25"/>
+      <c r="G624" s="31"/>
     </row>
     <row r="625" spans="7:7">
-      <c r="G625" s="25"/>
+      <c r="G625" s="31"/>
     </row>
     <row r="626" spans="7:7">
-      <c r="G626" s="25"/>
+      <c r="G626" s="31"/>
     </row>
     <row r="627" spans="7:7">
-      <c r="G627" s="25"/>
+      <c r="G627" s="31"/>
     </row>
     <row r="628" spans="7:7">
-      <c r="G628" s="25"/>
+      <c r="G628" s="31"/>
     </row>
     <row r="629" spans="7:7">
-      <c r="G629" s="25"/>
+      <c r="G629" s="31"/>
     </row>
     <row r="630" spans="7:7">
-      <c r="G630" s="25"/>
+      <c r="G630" s="31"/>
     </row>
     <row r="631" spans="7:7">
-      <c r="G631" s="25"/>
+      <c r="G631" s="31"/>
     </row>
     <row r="632" spans="7:7">
-      <c r="G632" s="25"/>
+      <c r="G632" s="31"/>
     </row>
     <row r="633" spans="7:7">
-      <c r="G633" s="25"/>
+      <c r="G633" s="31"/>
     </row>
     <row r="634" spans="7:7">
-      <c r="G634" s="25"/>
+      <c r="G634" s="31"/>
     </row>
     <row r="635" spans="7:7">
-      <c r="G635" s="25"/>
+      <c r="G635" s="31"/>
     </row>
     <row r="636" spans="7:7">
-      <c r="G636" s="25"/>
+      <c r="G636" s="31"/>
     </row>
     <row r="637" spans="7:7">
-      <c r="G637" s="25"/>
+      <c r="G637" s="31"/>
     </row>
     <row r="638" spans="7:7">
-      <c r="G638" s="25"/>
+      <c r="G638" s="31"/>
     </row>
     <row r="639" spans="7:7">
-      <c r="G639" s="25"/>
+      <c r="G639" s="31"/>
     </row>
     <row r="640" spans="7:7">
-      <c r="G640" s="25"/>
+      <c r="G640" s="31"/>
     </row>
     <row r="641" spans="7:7">
-      <c r="G641" s="25"/>
+      <c r="G641" s="31"/>
     </row>
     <row r="642" spans="7:7">
-      <c r="G642" s="25"/>
+      <c r="G642" s="31"/>
     </row>
     <row r="643" spans="7:7">
-      <c r="G643" s="25"/>
+      <c r="G643" s="31"/>
     </row>
     <row r="644" spans="7:7">
-      <c r="G644" s="25"/>
+      <c r="G644" s="31"/>
     </row>
     <row r="645" spans="7:7">
-      <c r="G645" s="25"/>
+      <c r="G645" s="31"/>
     </row>
     <row r="646" spans="7:7">
-      <c r="G646" s="25"/>
+      <c r="G646" s="31"/>
     </row>
     <row r="647" spans="7:7">
-      <c r="G647" s="25"/>
+      <c r="G647" s="31"/>
     </row>
     <row r="648" spans="7:7">
-      <c r="G648" s="25"/>
+      <c r="G648" s="31"/>
     </row>
     <row r="649" spans="7:7">
-      <c r="G649" s="25"/>
+      <c r="G649" s="31"/>
     </row>
     <row r="650" spans="7:7">
-      <c r="G650" s="25"/>
+      <c r="G650" s="31"/>
     </row>
     <row r="651" spans="7:7">
-      <c r="G651" s="25"/>
+      <c r="G651" s="31"/>
     </row>
     <row r="652" spans="7:7">
-      <c r="G652" s="25"/>
+      <c r="G652" s="31"/>
     </row>
     <row r="653" spans="7:7">
-      <c r="G653" s="25"/>
+      <c r="G653" s="31"/>
     </row>
     <row r="654" spans="7:7">
-      <c r="G654" s="25"/>
+      <c r="G654" s="31"/>
     </row>
     <row r="655" spans="7:7">
-      <c r="G655" s="25"/>
+      <c r="G655" s="31"/>
     </row>
     <row r="656" spans="7:7">
-      <c r="G656" s="25"/>
+      <c r="G656" s="31"/>
     </row>
     <row r="657" spans="7:7">
-      <c r="G657" s="25"/>
+      <c r="G657" s="31"/>
     </row>
     <row r="658" spans="7:7">
-      <c r="G658" s="25"/>
+      <c r="G658" s="31"/>
     </row>
     <row r="659" spans="7:7">
-      <c r="G659" s="25"/>
+      <c r="G659" s="31"/>
     </row>
     <row r="660" spans="7:7">
-      <c r="G660" s="25"/>
+      <c r="G660" s="31"/>
     </row>
     <row r="661" spans="7:7">
-      <c r="G661" s="25"/>
+      <c r="G661" s="31"/>
     </row>
     <row r="662" spans="7:7">
-      <c r="G662" s="25"/>
+      <c r="G662" s="31"/>
     </row>
     <row r="663" spans="7:7">
-      <c r="G663" s="25"/>
+      <c r="G663" s="31"/>
     </row>
     <row r="664" spans="7:7">
-      <c r="G664" s="25"/>
+      <c r="G664" s="31"/>
     </row>
     <row r="665" spans="7:7">
-      <c r="G665" s="25"/>
+      <c r="G665" s="31"/>
     </row>
     <row r="666" spans="7:7">
-      <c r="G666" s="25"/>
+      <c r="G666" s="31"/>
     </row>
     <row r="667" spans="7:7">
-      <c r="G667" s="25"/>
+      <c r="G667" s="31"/>
     </row>
     <row r="668" spans="7:7">
-      <c r="G668" s="25"/>
+      <c r="G668" s="31"/>
     </row>
     <row r="669" spans="7:7">
-      <c r="G669" s="25"/>
+      <c r="G669" s="31"/>
     </row>
     <row r="670" spans="7:7">
-      <c r="G670" s="25"/>
+      <c r="G670" s="31"/>
     </row>
     <row r="671" spans="7:7">
-      <c r="G671" s="25"/>
+      <c r="G671" s="31"/>
     </row>
     <row r="672" spans="7:7">
-      <c r="G672" s="25"/>
+      <c r="G672" s="31"/>
     </row>
     <row r="673" spans="7:7">
-      <c r="G673" s="25"/>
+      <c r="G673" s="31"/>
     </row>
     <row r="674" spans="7:7">
-      <c r="G674" s="25"/>
+      <c r="G674" s="31"/>
     </row>
     <row r="675" spans="7:7">
-      <c r="G675" s="25"/>
+      <c r="G675" s="31"/>
     </row>
     <row r="676" spans="7:7">
-      <c r="G676" s="25"/>
+      <c r="G676" s="31"/>
     </row>
     <row r="677" spans="7:7">
-      <c r="G677" s="25"/>
+      <c r="G677" s="31"/>
     </row>
     <row r="678" spans="7:7">
-      <c r="G678" s="25"/>
+      <c r="G678" s="31"/>
     </row>
     <row r="679" spans="7:7">
-      <c r="G679" s="25"/>
+      <c r="G679" s="31"/>
     </row>
     <row r="680" spans="7:7">
-      <c r="G680" s="25"/>
+      <c r="G680" s="31"/>
     </row>
     <row r="681" spans="7:7">
-      <c r="G681" s="25"/>
+      <c r="G681" s="31"/>
     </row>
     <row r="682" spans="7:7">
-      <c r="G682" s="25"/>
+      <c r="G682" s="31"/>
     </row>
     <row r="683" spans="7:7">
-      <c r="G683" s="25"/>
+      <c r="G683" s="31"/>
     </row>
     <row r="684" spans="7:7">
-      <c r="G684" s="25"/>
+      <c r="G684" s="31"/>
     </row>
     <row r="685" spans="7:7">
-      <c r="G685" s="25"/>
+      <c r="G685" s="31"/>
     </row>
     <row r="686" spans="7:7">
-      <c r="G686" s="25"/>
+      <c r="G686" s="31"/>
     </row>
     <row r="687" spans="7:7">
-      <c r="G687" s="25"/>
+      <c r="G687" s="31"/>
     </row>
     <row r="688" spans="7:7">
-      <c r="G688" s="25"/>
+      <c r="G688" s="31"/>
     </row>
     <row r="689" spans="7:7">
-      <c r="G689" s="25"/>
+      <c r="G689" s="31"/>
     </row>
     <row r="690" spans="7:7">
-      <c r="G690" s="25"/>
+      <c r="G690" s="31"/>
     </row>
     <row r="691" spans="7:7">
-      <c r="G691" s="25"/>
+      <c r="G691" s="31"/>
     </row>
     <row r="692" spans="7:7">
-      <c r="G692" s="25"/>
+      <c r="G692" s="31"/>
     </row>
     <row r="693" spans="7:7">
-      <c r="G693" s="25"/>
+      <c r="G693" s="31"/>
     </row>
     <row r="694" spans="7:7">
-      <c r="G694" s="25"/>
+      <c r="G694" s="31"/>
     </row>
     <row r="695" spans="7:7">
-      <c r="G695" s="25"/>
+      <c r="G695" s="31"/>
     </row>
     <row r="696" spans="7:7">
-      <c r="G696" s="25"/>
+      <c r="G696" s="31"/>
     </row>
     <row r="697" spans="7:7">
-      <c r="G697" s="25"/>
+      <c r="G697" s="31"/>
     </row>
     <row r="698" spans="7:7">
-      <c r="G698" s="25"/>
+      <c r="G698" s="31"/>
     </row>
     <row r="699" spans="7:7">
-      <c r="G699" s="25"/>
+      <c r="G699" s="31"/>
     </row>
     <row r="700" spans="7:7">
-      <c r="G700" s="25"/>
+      <c r="G700" s="31"/>
     </row>
     <row r="701" spans="7:7">
-      <c r="G701" s="25"/>
+      <c r="G701" s="31"/>
     </row>
     <row r="702" spans="7:7">
-      <c r="G702" s="25"/>
+      <c r="G702" s="31"/>
     </row>
     <row r="703" spans="7:7">
-      <c r="G703" s="25"/>
+      <c r="G703" s="31"/>
     </row>
     <row r="704" spans="7:7">
-      <c r="G704" s="25"/>
+      <c r="G704" s="31"/>
     </row>
     <row r="705" spans="7:7">
-      <c r="G705" s="25"/>
+      <c r="G705" s="31"/>
     </row>
     <row r="706" spans="7:7">
-      <c r="G706" s="25"/>
+      <c r="G706" s="31"/>
     </row>
     <row r="707" spans="7:7">
-      <c r="G707" s="25"/>
+      <c r="G707" s="31"/>
     </row>
     <row r="708" spans="7:7">
-      <c r="G708" s="25"/>
+      <c r="G708" s="31"/>
     </row>
     <row r="709" spans="7:7">
-      <c r="G709" s="25"/>
+      <c r="G709" s="31"/>
     </row>
     <row r="710" spans="7:7">
-      <c r="G710" s="25"/>
+      <c r="G710" s="31"/>
     </row>
     <row r="711" spans="7:7">
-      <c r="G711" s="25"/>
+      <c r="G711" s="31"/>
     </row>
     <row r="712" spans="7:7">
-      <c r="G712" s="25"/>
+      <c r="G712" s="31"/>
     </row>
     <row r="713" spans="7:7">
-      <c r="G713" s="25"/>
+      <c r="G713" s="31"/>
     </row>
     <row r="714" spans="7:7">
-      <c r="G714" s="25"/>
+      <c r="G714" s="31"/>
     </row>
     <row r="715" spans="7:7">
-      <c r="G715" s="25"/>
+      <c r="G715" s="31"/>
     </row>
     <row r="716" spans="7:7">
-      <c r="G716" s="25"/>
+      <c r="G716" s="31"/>
     </row>
     <row r="717" spans="7:7">
-      <c r="G717" s="25"/>
+      <c r="G717" s="31"/>
     </row>
     <row r="718" spans="7:7">
-      <c r="G718" s="25"/>
+      <c r="G718" s="31"/>
     </row>
     <row r="719" spans="7:7">
-      <c r="G719" s="25"/>
+      <c r="G719" s="31"/>
     </row>
     <row r="720" spans="7:7">
-      <c r="G720" s="25"/>
+      <c r="G720" s="31"/>
     </row>
     <row r="721" spans="7:7">
-      <c r="G721" s="25"/>
+      <c r="G721" s="31"/>
     </row>
     <row r="722" spans="7:7">
-      <c r="G722" s="25"/>
+      <c r="G722" s="31"/>
     </row>
     <row r="723" spans="7:7">
-      <c r="G723" s="25"/>
+      <c r="G723" s="31"/>
     </row>
     <row r="724" spans="7:7">
-      <c r="G724" s="25"/>
+      <c r="G724" s="31"/>
     </row>
     <row r="725" spans="7:7">
-      <c r="G725" s="25"/>
+      <c r="G725" s="31"/>
     </row>
     <row r="726" spans="7:7">
-      <c r="G726" s="25"/>
+      <c r="G726" s="31"/>
     </row>
     <row r="727" spans="7:7">
-      <c r="G727" s="25"/>
+      <c r="G727" s="31"/>
     </row>
     <row r="728" spans="7:7">
-      <c r="G728" s="25"/>
+      <c r="G728" s="31"/>
     </row>
     <row r="729" spans="7:7">
-      <c r="G729" s="25"/>
+      <c r="G729" s="31"/>
     </row>
     <row r="730" spans="7:7">
-      <c r="G730" s="25"/>
+      <c r="G730" s="31"/>
     </row>
     <row r="731" spans="7:7">
-      <c r="G731" s="25"/>
+      <c r="G731" s="31"/>
     </row>
     <row r="732" spans="7:7">
-      <c r="G732" s="25"/>
+      <c r="G732" s="31"/>
     </row>
     <row r="733" spans="7:7">
-      <c r="G733" s="25"/>
+      <c r="G733" s="31"/>
     </row>
     <row r="734" spans="7:7">
-      <c r="G734" s="25"/>
+      <c r="G734" s="31"/>
     </row>
     <row r="735" spans="7:7">
-      <c r="G735" s="25"/>
+      <c r="G735" s="31"/>
     </row>
     <row r="736" spans="7:7">
-      <c r="G736" s="25"/>
+      <c r="G736" s="31"/>
     </row>
     <row r="737" spans="7:7">
-      <c r="G737" s="25"/>
+      <c r="G737" s="31"/>
     </row>
     <row r="738" spans="7:7">
-      <c r="G738" s="25"/>
+      <c r="G738" s="31"/>
     </row>
     <row r="739" spans="7:7">
-      <c r="G739" s="25"/>
+      <c r="G739" s="31"/>
     </row>
     <row r="740" spans="7:7">
-      <c r="G740" s="25"/>
+      <c r="G740" s="31"/>
     </row>
     <row r="741" spans="7:7">
-      <c r="G741" s="25"/>
+      <c r="G741" s="31"/>
     </row>
     <row r="742" spans="7:7">
-      <c r="G742" s="25"/>
+      <c r="G742" s="31"/>
     </row>
     <row r="743" spans="7:7">
-      <c r="G743" s="25"/>
+      <c r="G743" s="31"/>
     </row>
     <row r="744" spans="7:7">
-      <c r="G744" s="25"/>
+      <c r="G744" s="31"/>
     </row>
     <row r="745" spans="7:7">
-      <c r="G745" s="25"/>
+      <c r="G745" s="31"/>
     </row>
     <row r="746" spans="7:7">
-      <c r="G746" s="25"/>
+      <c r="G746" s="31"/>
     </row>
     <row r="747" spans="7:7">
-      <c r="G747" s="25"/>
+      <c r="G747" s="31"/>
     </row>
     <row r="748" spans="7:7">
-      <c r="G748" s="25"/>
+      <c r="G748" s="31"/>
     </row>
     <row r="749" spans="7:7">
-      <c r="G749" s="25"/>
+      <c r="G749" s="31"/>
     </row>
     <row r="750" spans="7:7">
-      <c r="G750" s="25"/>
+      <c r="G750" s="31"/>
     </row>
     <row r="751" spans="7:7">
-      <c r="G751" s="25"/>
+      <c r="G751" s="31"/>
     </row>
     <row r="752" spans="7:7">
-      <c r="G752" s="25"/>
+      <c r="G752" s="31"/>
     </row>
     <row r="753" spans="7:7">
-      <c r="G753" s="25"/>
+      <c r="G753" s="31"/>
     </row>
     <row r="754" spans="7:7">
-      <c r="G754" s="25"/>
+      <c r="G754" s="31"/>
     </row>
     <row r="755" spans="7:7">
-      <c r="G755" s="25"/>
+      <c r="G755" s="31"/>
     </row>
     <row r="756" spans="7:7">
-      <c r="G756" s="25"/>
+      <c r="G756" s="31"/>
     </row>
     <row r="757" spans="7:7">
-      <c r="G757" s="25"/>
+      <c r="G757" s="31"/>
     </row>
     <row r="758" spans="7:7">
-      <c r="G758" s="25"/>
+      <c r="G758" s="31"/>
     </row>
     <row r="759" spans="7:7">
-      <c r="G759" s="25"/>
+      <c r="G759" s="31"/>
     </row>
     <row r="760" spans="7:7">
-      <c r="G760" s="25"/>
+      <c r="G760" s="31"/>
     </row>
     <row r="761" spans="7:7">
-      <c r="G761" s="25"/>
+      <c r="G761" s="31"/>
     </row>
     <row r="762" spans="7:7">
-      <c r="G762" s="25"/>
+      <c r="G762" s="31"/>
     </row>
     <row r="763" spans="7:7">
-      <c r="G763" s="25"/>
+      <c r="G763" s="31"/>
     </row>
     <row r="764" spans="7:7">
-      <c r="G764" s="25"/>
+      <c r="G764" s="31"/>
     </row>
     <row r="765" spans="7:7">
-      <c r="G765" s="25"/>
+      <c r="G765" s="31"/>
     </row>
     <row r="766" spans="7:7">
-      <c r="G766" s="25"/>
+      <c r="G766" s="31"/>
     </row>
     <row r="767" spans="7:7">
-      <c r="G767" s="25"/>
+      <c r="G767" s="31"/>
     </row>
     <row r="768" spans="7:7">
-      <c r="G768" s="25"/>
+      <c r="G768" s="31"/>
     </row>
     <row r="769" spans="7:7">
-      <c r="G769" s="25"/>
+      <c r="G769" s="31"/>
     </row>
     <row r="770" spans="7:7">
-      <c r="G770" s="25"/>
+      <c r="G770" s="31"/>
     </row>
     <row r="771" spans="7:7">
-      <c r="G771" s="25"/>
+      <c r="G771" s="31"/>
     </row>
     <row r="772" spans="7:7">
-      <c r="G772" s="25"/>
+      <c r="G772" s="31"/>
     </row>
     <row r="773" spans="7:7">
-      <c r="G773" s="25"/>
+      <c r="G773" s="31"/>
     </row>
     <row r="774" spans="7:7">
-      <c r="G774" s="25"/>
+      <c r="G774" s="31"/>
     </row>
     <row r="775" spans="7:7">
-      <c r="G775" s="25"/>
+      <c r="G775" s="31"/>
     </row>
     <row r="776" spans="7:7">
-      <c r="G776" s="25"/>
+      <c r="G776" s="31"/>
     </row>
     <row r="777" spans="7:7">
-      <c r="G777" s="25"/>
+      <c r="G777" s="31"/>
     </row>
     <row r="778" spans="7:7">
-      <c r="G778" s="25"/>
+      <c r="G778" s="31"/>
     </row>
     <row r="779" spans="7:7">
-      <c r="G779" s="25"/>
+      <c r="G779" s="31"/>
     </row>
     <row r="780" spans="7:7">
-      <c r="G780" s="25"/>
+      <c r="G780" s="31"/>
     </row>
     <row r="781" spans="7:7">
-      <c r="G781" s="25"/>
+      <c r="G781" s="31"/>
     </row>
     <row r="782" spans="7:7">
-      <c r="G782" s="25"/>
+      <c r="G782" s="31"/>
     </row>
     <row r="783" spans="7:7">
-      <c r="G783" s="25"/>
+      <c r="G783" s="31"/>
     </row>
     <row r="784" spans="7:7">
-      <c r="G784" s="25"/>
+      <c r="G784" s="31"/>
     </row>
     <row r="785" spans="7:7">
-      <c r="G785" s="25"/>
+      <c r="G785" s="31"/>
     </row>
     <row r="786" spans="7:7">
-      <c r="G786" s="25"/>
+      <c r="G786" s="31"/>
     </row>
     <row r="787" spans="7:7">
-      <c r="G787" s="25"/>
+      <c r="G787" s="31"/>
     </row>
     <row r="788" spans="7:7">
-      <c r="G788" s="25"/>
+      <c r="G788" s="31"/>
     </row>
     <row r="789" spans="7:7">
-      <c r="G789" s="25"/>
+      <c r="G789" s="31"/>
     </row>
     <row r="790" spans="7:7">
-      <c r="G790" s="25"/>
+      <c r="G790" s="31"/>
     </row>
     <row r="791" spans="7:7">
-      <c r="G791" s="25"/>
+      <c r="G791" s="31"/>
     </row>
     <row r="792" spans="7:7">
-      <c r="G792" s="25"/>
+      <c r="G792" s="31"/>
     </row>
     <row r="793" spans="7:7">
-      <c r="G793" s="25"/>
+      <c r="G793" s="31"/>
     </row>
     <row r="794" spans="7:7">
-      <c r="G794" s="25"/>
+      <c r="G794" s="31"/>
     </row>
     <row r="795" spans="7:7">
-      <c r="G795" s="25"/>
+      <c r="G795" s="31"/>
     </row>
     <row r="796" spans="7:7">
-      <c r="G796" s="25"/>
+      <c r="G796" s="31"/>
     </row>
     <row r="797" spans="7:7">
-      <c r="G797" s="25"/>
+      <c r="G797" s="31"/>
     </row>
     <row r="798" spans="7:7">
-      <c r="G798" s="25"/>
+      <c r="G798" s="31"/>
     </row>
     <row r="799" spans="7:7">
-      <c r="G799" s="25"/>
+      <c r="G799" s="31"/>
     </row>
     <row r="800" spans="7:7">
-      <c r="G800" s="25"/>
+      <c r="G800" s="31"/>
     </row>
     <row r="801" spans="7:7">
-      <c r="G801" s="25"/>
+      <c r="G801" s="31"/>
     </row>
     <row r="802" spans="7:7">
-      <c r="G802" s="25"/>
+      <c r="G802" s="31"/>
     </row>
     <row r="803" spans="7:7">
-      <c r="G803" s="25"/>
+      <c r="G803" s="31"/>
     </row>
     <row r="804" spans="7:7">
-      <c r="G804" s="25"/>
+      <c r="G804" s="31"/>
     </row>
     <row r="805" spans="7:7">
-      <c r="G805" s="25"/>
+      <c r="G805" s="31"/>
     </row>
     <row r="806" spans="7:7">
-      <c r="G806" s="25"/>
+      <c r="G806" s="31"/>
     </row>
     <row r="807" spans="7:7">
-      <c r="G807" s="25"/>
+      <c r="G807" s="31"/>
     </row>
     <row r="808" spans="7:7">
-      <c r="G808" s="25"/>
+      <c r="G808" s="31"/>
     </row>
     <row r="809" spans="7:7">
-      <c r="G809" s="25"/>
+      <c r="G809" s="31"/>
     </row>
     <row r="810" spans="7:7">
-      <c r="G810" s="25"/>
+      <c r="G810" s="31"/>
     </row>
     <row r="811" spans="7:7">
-      <c r="G811" s="25"/>
+      <c r="G811" s="31"/>
     </row>
     <row r="812" spans="7:7">
-      <c r="G812" s="25"/>
+      <c r="G812" s="31"/>
     </row>
     <row r="813" spans="7:7">
-      <c r="G813" s="25"/>
+      <c r="G813" s="31"/>
     </row>
     <row r="814" spans="7:7">
-      <c r="G814" s="25"/>
+      <c r="G814" s="31"/>
     </row>
     <row r="815" spans="7:7">
-      <c r="G815" s="25"/>
+      <c r="G815" s="31"/>
     </row>
     <row r="816" spans="7:7">
-      <c r="G816" s="25"/>
+      <c r="G816" s="31"/>
     </row>
     <row r="817" spans="7:7">
-      <c r="G817" s="25"/>
+      <c r="G817" s="31"/>
     </row>
     <row r="818" spans="7:7">
-      <c r="G818" s="25"/>
+      <c r="G818" s="31"/>
     </row>
     <row r="819" spans="7:7">
-      <c r="G819" s="25"/>
+      <c r="G819" s="31"/>
     </row>
     <row r="820" spans="7:7">
-      <c r="G820" s="25"/>
+      <c r="G820" s="31"/>
     </row>
     <row r="821" spans="7:7">
-      <c r="G821" s="25"/>
+      <c r="G821" s="31"/>
     </row>
     <row r="822" spans="7:7">
-      <c r="G822" s="25"/>
+      <c r="G822" s="31"/>
     </row>
     <row r="823" spans="7:7">
-      <c r="G823" s="25"/>
+      <c r="G823" s="31"/>
     </row>
     <row r="824" spans="7:7">
-      <c r="G824" s="25"/>
+      <c r="G824" s="31"/>
     </row>
     <row r="825" spans="7:7">
-      <c r="G825" s="25"/>
+      <c r="G825" s="31"/>
     </row>
     <row r="826" spans="7:7">
-      <c r="G826" s="25"/>
+      <c r="G826" s="31"/>
     </row>
     <row r="827" spans="7:7">
-      <c r="G827" s="25"/>
+      <c r="G827" s="31"/>
     </row>
     <row r="828" spans="7:7">
-      <c r="G828" s="25"/>
+      <c r="G828" s="31"/>
     </row>
     <row r="829" spans="7:7">
-      <c r="G829" s="25"/>
+      <c r="G829" s="31"/>
     </row>
     <row r="830" spans="7:7">
-      <c r="G830" s="25"/>
+      <c r="G830" s="31"/>
     </row>
     <row r="831" spans="7:7">
-      <c r="G831" s="25"/>
+      <c r="G831" s="31"/>
     </row>
     <row r="832" spans="7:7">
-      <c r="G832" s="25"/>
+      <c r="G832" s="31"/>
     </row>
     <row r="833" spans="7:7">
-      <c r="G833" s="25"/>
+      <c r="G833" s="31"/>
     </row>
     <row r="834" spans="7:7">
-      <c r="G834" s="25"/>
+      <c r="G834" s="31"/>
     </row>
     <row r="835" spans="7:7">
-      <c r="G835" s="25"/>
+      <c r="G835" s="31"/>
     </row>
     <row r="836" spans="7:7">
-      <c r="G836" s="25"/>
+      <c r="G836" s="31"/>
     </row>
     <row r="837" spans="7:7">
-      <c r="G837" s="25"/>
+      <c r="G837" s="31"/>
     </row>
     <row r="838" spans="7:7">
-      <c r="G838" s="25"/>
+      <c r="G838" s="31"/>
     </row>
     <row r="839" spans="7:7">
-      <c r="G839" s="25"/>
+      <c r="G839" s="31"/>
     </row>
     <row r="840" spans="7:7">
-      <c r="G840" s="25"/>
+      <c r="G840" s="31"/>
     </row>
     <row r="841" spans="7:7">
-      <c r="G841" s="25"/>
+      <c r="G841" s="31"/>
     </row>
     <row r="842" spans="7:7">
-      <c r="G842" s="25"/>
+      <c r="G842" s="31"/>
     </row>
     <row r="843" spans="7:7">
-      <c r="G843" s="25"/>
+      <c r="G843" s="31"/>
     </row>
     <row r="844" spans="7:7">
-      <c r="G844" s="25"/>
+      <c r="G844" s="31"/>
     </row>
     <row r="845" spans="7:7">
-      <c r="G845" s="25"/>
+      <c r="G845" s="31"/>
     </row>
     <row r="846" spans="7:7">
-      <c r="G846" s="25"/>
+      <c r="G846" s="31"/>
     </row>
     <row r="847" spans="7:7">
-      <c r="G847" s="25"/>
+      <c r="G847" s="31"/>
     </row>
     <row r="848" spans="7:7">
-      <c r="G848" s="25"/>
+      <c r="G848" s="31"/>
     </row>
     <row r="849" spans="7:7">
-      <c r="G849" s="25"/>
+      <c r="G849" s="31"/>
     </row>
     <row r="850" spans="7:7">
-      <c r="G850" s="25"/>
+      <c r="G850" s="31"/>
     </row>
     <row r="851" spans="7:7">
-      <c r="G851" s="25"/>
+      <c r="G851" s="31"/>
     </row>
     <row r="852" spans="7:7">
-      <c r="G852" s="25"/>
+      <c r="G852" s="31"/>
     </row>
     <row r="853" spans="7:7">
-      <c r="G853" s="25"/>
+      <c r="G853" s="31"/>
     </row>
     <row r="854" spans="7:7">
-      <c r="G854" s="25"/>
+      <c r="G854" s="31"/>
     </row>
     <row r="855" spans="7:7">
-      <c r="G855" s="25"/>
+      <c r="G855" s="31"/>
     </row>
     <row r="856" spans="7:7">
-      <c r="G856" s="25"/>
+      <c r="G856" s="31"/>
     </row>
     <row r="857" spans="7:7">
-      <c r="G857" s="25"/>
+      <c r="G857" s="31"/>
     </row>
     <row r="858" spans="7:7">
-      <c r="G858" s="25"/>
+      <c r="G858" s="31"/>
     </row>
     <row r="859" spans="7:7">
-      <c r="G859" s="25"/>
+      <c r="G859" s="31"/>
     </row>
     <row r="860" spans="7:7">
-      <c r="G860" s="25"/>
+      <c r="G860" s="31"/>
     </row>
     <row r="861" spans="7:7">
-      <c r="G861" s="25"/>
+      <c r="G861" s="31"/>
     </row>
     <row r="862" spans="7:7">
-      <c r="G862" s="25"/>
+      <c r="G862" s="31"/>
     </row>
     <row r="863" spans="7:7">
-      <c r="G863" s="25"/>
+      <c r="G863" s="31"/>
     </row>
     <row r="864" spans="7:7">
-      <c r="G864" s="25"/>
+      <c r="G864" s="31"/>
     </row>
     <row r="865" spans="7:7">
-      <c r="G865" s="25"/>
+      <c r="G865" s="31"/>
     </row>
     <row r="866" spans="7:7">
-      <c r="G866" s="25"/>
+      <c r="G866" s="31"/>
     </row>
     <row r="867" spans="7:7">
-      <c r="G867" s="25"/>
+      <c r="G867" s="31"/>
     </row>
     <row r="868" spans="7:7">
-      <c r="G868" s="25"/>
+      <c r="G868" s="31"/>
     </row>
     <row r="869" spans="7:7">
-      <c r="G869" s="25"/>
+      <c r="G869" s="31"/>
     </row>
     <row r="870" spans="7:7">
-      <c r="G870" s="25"/>
+      <c r="G870" s="31"/>
     </row>
     <row r="871" spans="7:7">
-      <c r="G871" s="25"/>
+      <c r="G871" s="31"/>
     </row>
     <row r="872" spans="7:7">
-      <c r="G872" s="25"/>
+      <c r="G872" s="31"/>
     </row>
     <row r="873" spans="7:7">
-      <c r="G873" s="25"/>
+      <c r="G873" s="31"/>
     </row>
     <row r="874" spans="7:7">
-      <c r="G874" s="25"/>
+      <c r="G874" s="31"/>
     </row>
     <row r="875" spans="7:7">
-      <c r="G875" s="25"/>
+      <c r="G875" s="31"/>
     </row>
     <row r="876" spans="7:7">
-      <c r="G876" s="25"/>
+      <c r="G876" s="31"/>
     </row>
     <row r="877" spans="7:7">
-      <c r="G877" s="25"/>
+      <c r="G877" s="31"/>
     </row>
     <row r="878" spans="7:7">
-      <c r="G878" s="25"/>
+      <c r="G878" s="31"/>
     </row>
     <row r="879" spans="7:7">
-      <c r="G879" s="25"/>
+      <c r="G879" s="31"/>
     </row>
     <row r="880" spans="7:7">
-      <c r="G880" s="25"/>
+      <c r="G880" s="31"/>
     </row>
     <row r="881" spans="7:7">
-      <c r="G881" s="25"/>
+      <c r="G881" s="31"/>
     </row>
     <row r="882" spans="7:7">
-      <c r="G882" s="25"/>
+      <c r="G882" s="31"/>
     </row>
     <row r="883" spans="7:7">
-      <c r="G883" s="25"/>
+      <c r="G883" s="31"/>
     </row>
     <row r="884" spans="7:7">
-      <c r="G884" s="25"/>
+      <c r="G884" s="31"/>
     </row>
     <row r="885" spans="7:7">
-      <c r="G885" s="25"/>
+      <c r="G885" s="31"/>
     </row>
     <row r="886" spans="7:7">
-      <c r="G886" s="25"/>
+      <c r="G886" s="31"/>
     </row>
     <row r="887" spans="7:7">
-      <c r="G887" s="25"/>
+      <c r="G887" s="31"/>
     </row>
     <row r="888" spans="7:7">
-      <c r="G888" s="25"/>
+      <c r="G888" s="31"/>
     </row>
     <row r="889" spans="7:7">
-      <c r="G889" s="25"/>
+      <c r="G889" s="31"/>
     </row>
     <row r="890" spans="7:7">
-      <c r="G890" s="25"/>
+      <c r="G890" s="31"/>
     </row>
     <row r="891" spans="7:7">
-      <c r="G891" s="25"/>
+      <c r="G891" s="31"/>
     </row>
     <row r="892" spans="7:7">
-      <c r="G892" s="25"/>
+      <c r="G892" s="31"/>
     </row>
     <row r="893" spans="7:7">
-      <c r="G893" s="25"/>
+      <c r="G893" s="31"/>
     </row>
     <row r="894" spans="7:7">
-      <c r="G894" s="25"/>
+      <c r="G894" s="31"/>
     </row>
     <row r="895" spans="7:7">
-      <c r="G895" s="25"/>
+      <c r="G895" s="31"/>
     </row>
     <row r="896" spans="7:7">
-      <c r="G896" s="25"/>
+      <c r="G896" s="31"/>
     </row>
     <row r="897" spans="7:7">
-      <c r="G897" s="25"/>
+      <c r="G897" s="31"/>
     </row>
     <row r="898" spans="7:7">
-      <c r="G898" s="25"/>
+      <c r="G898" s="31"/>
     </row>
     <row r="899" spans="7:7">
-      <c r="G899" s="25"/>
+      <c r="G899" s="31"/>
     </row>
     <row r="900" spans="7:7">
-      <c r="G900" s="25"/>
+      <c r="G900" s="31"/>
     </row>
     <row r="901" spans="7:7">
-      <c r="G901" s="25"/>
+      <c r="G901" s="31"/>
     </row>
     <row r="902" spans="7:7">
-      <c r="G902" s="25"/>
+      <c r="G902" s="31"/>
     </row>
     <row r="903" spans="7:7">
-      <c r="G903" s="25"/>
+      <c r="G903" s="31"/>
     </row>
     <row r="904" spans="7:7">
-      <c r="G904" s="25"/>
+      <c r="G904" s="31"/>
     </row>
     <row r="905" spans="7:7">
-      <c r="G905" s="25"/>
+      <c r="G905" s="31"/>
     </row>
     <row r="906" spans="7:7">
-      <c r="G906" s="25"/>
+      <c r="G906" s="31"/>
     </row>
     <row r="907" spans="7:7">
-      <c r="G907" s="25"/>
+      <c r="G907" s="31"/>
     </row>
     <row r="908" spans="7:7">
-      <c r="G908" s="25"/>
+      <c r="G908" s="31"/>
     </row>
     <row r="909" spans="7:7">
-      <c r="G909" s="25"/>
+      <c r="G909" s="31"/>
     </row>
     <row r="910" spans="7:7">
-      <c r="G910" s="25"/>
+      <c r="G910" s="31"/>
     </row>
     <row r="911" spans="7:7">
-      <c r="G911" s="25"/>
+      <c r="G911" s="31"/>
     </row>
     <row r="912" spans="7:7">
-      <c r="G912" s="25"/>
+      <c r="G912" s="31"/>
     </row>
     <row r="913" spans="7:7">
-      <c r="G913" s="25"/>
+      <c r="G913" s="31"/>
     </row>
     <row r="914" spans="7:7">
-      <c r="G914" s="25"/>
+      <c r="G914" s="31"/>
     </row>
     <row r="915" spans="7:7">
-      <c r="G915" s="25"/>
+      <c r="G915" s="31"/>
     </row>
     <row r="916" spans="7:7">
-      <c r="G916" s="25"/>
+      <c r="G916" s="31"/>
     </row>
     <row r="917" spans="7:7">
-      <c r="G917" s="25"/>
+      <c r="G917" s="31"/>
     </row>
     <row r="918" spans="7:7">
-      <c r="G918" s="25"/>
+      <c r="G918" s="31"/>
     </row>
     <row r="919" spans="7:7">
-      <c r="G919" s="25"/>
+      <c r="G919" s="31"/>
     </row>
     <row r="920" spans="7:7">
-      <c r="G920" s="25"/>
+      <c r="G920" s="31"/>
     </row>
     <row r="921" spans="7:7">
-      <c r="G921" s="25"/>
+      <c r="G921" s="31"/>
     </row>
     <row r="922" spans="7:7">
-      <c r="G922" s="25"/>
+      <c r="G922" s="31"/>
     </row>
     <row r="923" spans="7:7">
-      <c r="G923" s="25"/>
+      <c r="G923" s="31"/>
     </row>
     <row r="924" spans="7:7">
-      <c r="G924" s="25"/>
+      <c r="G924" s="31"/>
     </row>
     <row r="925" spans="7:7">
-      <c r="G925" s="25"/>
+      <c r="G925" s="31"/>
     </row>
     <row r="926" spans="7:7">
-      <c r="G926" s="25"/>
+      <c r="G926" s="31"/>
     </row>
     <row r="927" spans="7:7">
-      <c r="G927" s="25"/>
+      <c r="G927" s="31"/>
     </row>
     <row r="928" spans="7:7">
-      <c r="G928" s="25"/>
+      <c r="G928" s="31"/>
     </row>
     <row r="929" spans="7:7">
-      <c r="G929" s="25"/>
+      <c r="G929" s="31"/>
     </row>
     <row r="930" spans="7:7">
-      <c r="G930" s="25"/>
+      <c r="G930" s="31"/>
     </row>
     <row r="931" spans="7:7">
-      <c r="G931" s="25"/>
+      <c r="G931" s="31"/>
     </row>
     <row r="932" spans="7:7">
-      <c r="G932" s="25"/>
+      <c r="G932" s="31"/>
     </row>
     <row r="933" spans="7:7">
-      <c r="G933" s="25"/>
+      <c r="G933" s="31"/>
     </row>
     <row r="934" spans="7:7">
-      <c r="G934" s="25"/>
+      <c r="G934" s="31"/>
     </row>
     <row r="935" spans="7:7">
-      <c r="G935" s="25"/>
+      <c r="G935" s="31"/>
     </row>
     <row r="936" spans="7:7">
-      <c r="G936" s="25"/>
+      <c r="G936" s="31"/>
     </row>
     <row r="937" spans="7:7">
-      <c r="G937" s="25"/>
+      <c r="G937" s="31"/>
     </row>
     <row r="938" spans="7:7">
-      <c r="G938" s="25"/>
+      <c r="G938" s="31"/>
     </row>
     <row r="939" spans="7:7">
-      <c r="G939" s="25"/>
+      <c r="G939" s="31"/>
     </row>
     <row r="940" spans="7:7">
-      <c r="G940" s="25"/>
+      <c r="G940" s="31"/>
     </row>
     <row r="941" spans="7:7">
-      <c r="G941" s="25"/>
+      <c r="G941" s="31"/>
     </row>
     <row r="942" spans="7:7">
-      <c r="G942" s="25"/>
+      <c r="G942" s="31"/>
     </row>
     <row r="943" spans="7:7">
-      <c r="G943" s="25"/>
+      <c r="G943" s="31"/>
     </row>
     <row r="944" spans="7:7">
-      <c r="G944" s="25"/>
+      <c r="G944" s="31"/>
     </row>
     <row r="945" spans="7:7">
-      <c r="G945" s="25"/>
+      <c r="G945" s="31"/>
     </row>
     <row r="946" spans="7:7">
-      <c r="G946" s="25"/>
+      <c r="G946" s="31"/>
     </row>
     <row r="947" spans="7:7">
-      <c r="G947" s="25"/>
+      <c r="G947" s="31"/>
     </row>
     <row r="948" spans="7:7">
-      <c r="G948" s="25"/>
+      <c r="G948" s="31"/>
     </row>
     <row r="949" spans="7:7">
-      <c r="G949" s="25"/>
+      <c r="G949" s="31"/>
     </row>
     <row r="950" spans="7:7">
-      <c r="G950" s="25"/>
+      <c r="G950" s="31"/>
     </row>
     <row r="951" spans="7:7">
-      <c r="G951" s="25"/>
+      <c r="G951" s="31"/>
     </row>
     <row r="952" spans="7:7">
-      <c r="G952" s="25"/>
+      <c r="G952" s="31"/>
     </row>
     <row r="953" spans="7:7">
-      <c r="G953" s="25"/>
+      <c r="G953" s="31"/>
     </row>
     <row r="954" spans="7:7">
-      <c r="G954" s="25"/>
+      <c r="G954" s="31"/>
     </row>
     <row r="955" spans="7:7">
-      <c r="G955" s="25"/>
+      <c r="G955" s="31"/>
     </row>
     <row r="956" spans="7:7">
-      <c r="G956" s="25"/>
+      <c r="G956" s="31"/>
     </row>
     <row r="957" spans="7:7">
-      <c r="G957" s="25"/>
+      <c r="G957" s="31"/>
     </row>
     <row r="958" spans="7:7">
-      <c r="G958" s="25"/>
+      <c r="G958" s="31"/>
     </row>
     <row r="959" spans="7:7">
-      <c r="G959" s="25"/>
+      <c r="G959" s="31"/>
     </row>
     <row r="960" spans="7:7">
-      <c r="G960" s="25"/>
+      <c r="G960" s="31"/>
     </row>
     <row r="961" spans="7:7">
-      <c r="G961" s="25"/>
+      <c r="G961" s="31"/>
     </row>
     <row r="962" spans="7:7">
-      <c r="G962" s="25"/>
+      <c r="G962" s="31"/>
     </row>
     <row r="963" spans="7:7">
-      <c r="G963" s="25"/>
+      <c r="G963" s="31"/>
     </row>
     <row r="964" spans="7:7">
-      <c r="G964" s="25"/>
+      <c r="G964" s="31"/>
     </row>
     <row r="965" spans="7:7">
-      <c r="G965" s="25"/>
+      <c r="G965" s="31"/>
     </row>
     <row r="966" spans="7:7">
-      <c r="G966" s="25"/>
+      <c r="G966" s="31"/>
     </row>
     <row r="967" spans="7:7">
-      <c r="G967" s="25"/>
+      <c r="G967" s="31"/>
     </row>
     <row r="968" spans="7:7">
-      <c r="G968" s="25"/>
+      <c r="G968" s="31"/>
     </row>
     <row r="969" spans="7:7">
-      <c r="G969" s="25"/>
+      <c r="G969" s="31"/>
     </row>
     <row r="970" spans="7:7">
-      <c r="G970" s="25"/>
+      <c r="G970" s="31"/>
     </row>
     <row r="971" spans="7:7">
-      <c r="G971" s="25"/>
+      <c r="G971" s="31"/>
     </row>
     <row r="972" spans="7:7">
-      <c r="G972" s="25"/>
+      <c r="G972" s="31"/>
     </row>
     <row r="973" spans="7:7">
-      <c r="G973" s="25"/>
+      <c r="G973" s="31"/>
     </row>
     <row r="974" spans="7:7">
-      <c r="G974" s="25"/>
+      <c r="G974" s="31"/>
     </row>
     <row r="975" spans="7:7">
-      <c r="G975" s="25"/>
+      <c r="G975" s="31"/>
     </row>
     <row r="976" spans="7:7">
-      <c r="G976" s="25"/>
+      <c r="G976" s="31"/>
     </row>
     <row r="977" spans="7:7">
-      <c r="G977" s="25"/>
+      <c r="G977" s="31"/>
     </row>
     <row r="978" spans="7:7">
-      <c r="G978" s="25"/>
+      <c r="G978" s="31"/>
     </row>
     <row r="979" spans="7:7">
-      <c r="G979" s="25"/>
+      <c r="G979" s="31"/>
     </row>
     <row r="980" spans="7:7">
-      <c r="G980" s="25"/>
+      <c r="G980" s="31"/>
     </row>
     <row r="981" spans="7:7">
-      <c r="G981" s="25"/>
+      <c r="G981" s="31"/>
     </row>
     <row r="982" spans="7:7">
-      <c r="G982" s="25"/>
+      <c r="G982" s="31"/>
     </row>
     <row r="983" spans="7:7">
-      <c r="G983" s="25"/>
+      <c r="G983" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>